--- a/BLACK_SUNRISE_HSV/45_Degree_GLCM/RGB_resmat.xlsx
+++ b/BLACK_SUNRISE_HSV/45_Degree_GLCM/RGB_resmat.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_HSV\45_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9B390A-6C18-4FE7-B97B-5366B20317F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,16 +51,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,30 +336,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L400"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="B308" sqref="B308"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.046875" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="15.7109375" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.0030679769031384209</v>
+        <v>3.0679769031384209E-3</v>
       </c>
       <c r="B1">
         <v>0.68495096468607519</v>
@@ -369,7 +368,7 @@
         <v>0.99846601154843084</v>
       </c>
       <c r="E1">
-        <v>0.059091193437575643</v>
+        <v>5.9091193437575643E-2</v>
       </c>
       <c r="F1">
         <v>0.44766794759817491</v>
@@ -393,9 +392,9 @@
         <v>0.90523981262131614</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.032302961075476672</v>
+        <v>3.2302961075476672E-2</v>
       </c>
       <c r="B2">
         <v>0.92859031445189555</v>
@@ -407,7 +406,7 @@
         <v>0.98384851946226171</v>
       </c>
       <c r="E2">
-        <v>0.0013250153765047008</v>
+        <v>1.3250153765047008E-3</v>
       </c>
       <c r="F2">
         <v>0.27850019476000221</v>
@@ -419,7 +418,7 @@
         <v>0.99933749231174762</v>
       </c>
       <c r="I2">
-        <v>0.048435111150162552</v>
+        <v>4.8435111150162552E-2</v>
       </c>
       <c r="J2">
         <v>0.90280644178944103</v>
@@ -431,9 +430,9 @@
         <v>0.9758433646721143</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.052492581081318379</v>
+        <v>5.2492581081318379E-2</v>
       </c>
       <c r="B3">
         <v>0.88809025192391355</v>
@@ -445,7 +444,7 @@
         <v>0.97375370945934081</v>
       </c>
       <c r="E3">
-        <v>0.029665138984003234</v>
+        <v>2.9665138984003234E-2</v>
       </c>
       <c r="F3">
         <v>0.43867743043716029</v>
@@ -469,9 +468,9 @@
         <v>0.95236773253261697</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.051072719766816363</v>
+        <v>5.1072719766816363E-2</v>
       </c>
       <c r="B4">
         <v>0.89153413258368253</v>
@@ -483,7 +482,7 @@
         <v>0.97446364011659181</v>
       </c>
       <c r="E4">
-        <v>0.032628194703328874</v>
+        <v>3.2628194703328874E-2</v>
       </c>
       <c r="F4">
         <v>0.38296697561140108</v>
@@ -507,9 +506,9 @@
         <v>0.95032971798624755</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.046033957139677437</v>
+        <v>4.6033957139677437E-2</v>
       </c>
       <c r="B5">
         <v>0.90029150875535247</v>
@@ -521,7 +520,7 @@
         <v>0.97698302143016125</v>
       </c>
       <c r="E5">
-        <v>0.029845669826963142</v>
+        <v>2.9845669826963142E-2</v>
       </c>
       <c r="F5">
         <v>0.49072921971771727</v>
@@ -545,9 +544,9 @@
         <v>0.94788678619273059</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.058069513206744292</v>
+        <v>5.8069513206744292E-2</v>
       </c>
       <c r="B6">
         <v>0.87688072539438311</v>
@@ -559,7 +558,7 @@
         <v>0.97096524339662782</v>
       </c>
       <c r="E6">
-        <v>0.058380288255810896</v>
+        <v>5.8380288255810896E-2</v>
       </c>
       <c r="F6">
         <v>0.43437003470831814</v>
@@ -583,9 +582,9 @@
         <v>0.93404110358610493</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.033300472042773796</v>
+        <v>3.3300472042773796E-2</v>
       </c>
       <c r="B7">
         <v>0.90836271886896403</v>
@@ -597,7 +596,7 @@
         <v>0.98334976397861318</v>
       </c>
       <c r="E7">
-        <v>0.012314865288038875</v>
+        <v>1.2314865288038875E-2</v>
       </c>
       <c r="F7">
         <v>0.52016452073435204</v>
@@ -609,7 +608,7 @@
         <v>0.99386112432006124</v>
       </c>
       <c r="I7">
-        <v>0.075921179295067337</v>
+        <v>7.5921179295067337E-2</v>
       </c>
       <c r="J7">
         <v>0.89602054998685754</v>
@@ -621,9 +620,9 @@
         <v>0.96273974244480265</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.037178425489743552</v>
+        <v>3.7178425489743552E-2</v>
       </c>
       <c r="B8">
         <v>0.92403506702119453</v>
@@ -635,7 +634,7 @@
         <v>0.98141078725512831</v>
       </c>
       <c r="E8">
-        <v>0.0065190535018530837</v>
+        <v>6.5190535018530837E-3</v>
       </c>
       <c r="F8">
         <v>0.42219429504921679</v>
@@ -647,7 +646,7 @@
         <v>0.99674047324907356</v>
       </c>
       <c r="I8">
-        <v>0.062966834552884154</v>
+        <v>6.2966834552884154E-2</v>
       </c>
       <c r="J8">
         <v>0.89842158397724503</v>
@@ -659,9 +658,9 @@
         <v>0.96907409167221004</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.070580835021350763</v>
+        <v>7.0580835021350763E-2</v>
       </c>
       <c r="B9">
         <v>0.84753610541341662</v>
@@ -673,7 +672,7 @@
         <v>0.96470958248932459</v>
       </c>
       <c r="E9">
-        <v>0.095032379453387161</v>
+        <v>9.5032379453387161E-2</v>
       </c>
       <c r="F9">
         <v>0.43610714723140237</v>
@@ -697,9 +696,9 @@
         <v>0.92397317276154112</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.040579068362540965</v>
+        <v>4.0579068362540965E-2</v>
       </c>
       <c r="B10">
         <v>0.88595146563389404</v>
@@ -711,7 +710,7 @@
         <v>0.97971046581872945</v>
       </c>
       <c r="E10">
-        <v>0.059224391724002193</v>
+        <v>5.9224391724002193E-2</v>
       </c>
       <c r="F10">
         <v>0.45665840122696999</v>
@@ -735,9 +734,9 @@
         <v>0.93528624940432092</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.058469646256460436</v>
+        <v>5.8469646256460436E-2</v>
       </c>
       <c r="B11">
         <v>0.87880322729330518</v>
@@ -749,7 +748,7 @@
         <v>0.97076517687176977</v>
       </c>
       <c r="E11">
-        <v>0.044098058116048028</v>
+        <v>4.4098058116048028E-2</v>
       </c>
       <c r="F11">
         <v>0.42885963132148081</v>
@@ -773,9 +772,9 @@
         <v>0.94777757864331313</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.058228192919109287</v>
+        <v>5.8228192919109287E-2</v>
       </c>
       <c r="B12">
         <v>0.87178356889192044</v>
@@ -787,7 +786,7 @@
         <v>0.97088590354044535</v>
       </c>
       <c r="E12">
-        <v>0.052752274451921717</v>
+        <v>5.2752274451921717E-2</v>
       </c>
       <c r="F12">
         <v>0.44803956209657697</v>
@@ -811,9 +810,9 @@
         <v>0.93845382670339528</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.040015394977388624</v>
+        <v>4.0015394977388624E-2</v>
       </c>
       <c r="B13">
         <v>0.91907425980499768</v>
@@ -825,7 +824,7 @@
         <v>0.97999230251130565</v>
       </c>
       <c r="E13">
-        <v>0.0057923602424708939</v>
+        <v>5.7923602424708939E-3</v>
       </c>
       <c r="F13">
         <v>0.42292352080986112</v>
@@ -837,7 +836,7 @@
         <v>0.99711408319702355</v>
       </c>
       <c r="I13">
-        <v>0.057080727412681609</v>
+        <v>5.7080727412681609E-2</v>
       </c>
       <c r="J13">
         <v>0.88729820947344029</v>
@@ -849,9 +848,9 @@
         <v>0.97189069566054087</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.046808922261217065</v>
+        <v>4.6808922261217065E-2</v>
       </c>
       <c r="B14">
         <v>0.9035688368319289</v>
@@ -863,7 +862,7 @@
         <v>0.97659553886939154</v>
       </c>
       <c r="E14">
-        <v>0.017647432235129816</v>
+        <v>1.7647432235129816E-2</v>
       </c>
       <c r="F14">
         <v>0.38420604401929054</v>
@@ -875,7 +874,7 @@
         <v>0.99123271052427397</v>
       </c>
       <c r="I14">
-        <v>0.089349572114759704</v>
+        <v>8.9349572114759704E-2</v>
       </c>
       <c r="J14">
         <v>0.8615074018014347</v>
@@ -887,9 +886,9 @@
         <v>0.95767573624172364</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.053079645110005638</v>
+        <v>5.3079645110005638E-2</v>
       </c>
       <c r="B15">
         <v>0.88997272166621078</v>
@@ -901,7 +900,7 @@
         <v>0.97346017744499713</v>
       </c>
       <c r="E15">
-        <v>0.03024986436551402</v>
+        <v>3.024986436551402E-2</v>
       </c>
       <c r="F15">
         <v>0.41228212946514087</v>
@@ -925,9 +924,9 @@
         <v>0.95217253606347785</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.032694540011818027</v>
+        <v>3.2694540011818027E-2</v>
       </c>
       <c r="B16">
         <v>0.91599392652815959</v>
@@ -939,7 +938,7 @@
         <v>0.98365272999409092</v>
       </c>
       <c r="E16">
-        <v>0.0066618874647933791</v>
+        <v>6.6618874647933791E-3</v>
       </c>
       <c r="F16">
         <v>0.53773792188004588</v>
@@ -951,7 +950,7 @@
         <v>0.99666905626760338</v>
       </c>
       <c r="I16">
-        <v>0.056747523163631672</v>
+        <v>5.6747523163631672E-2</v>
       </c>
       <c r="J16">
         <v>0.89396270940580846</v>
@@ -963,9 +962,9 @@
         <v>0.97170222572830334</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.038472763425859112</v>
+        <v>3.8472763425859112E-2</v>
       </c>
       <c r="B17">
         <v>0.91989477192062452</v>
@@ -977,7 +976,7 @@
         <v>0.98076361828707037</v>
       </c>
       <c r="E17">
-        <v>0.0040441942880967271</v>
+        <v>4.0441942880967271E-3</v>
       </c>
       <c r="F17">
         <v>0.32829804010916591</v>
@@ -989,7 +988,7 @@
         <v>0.99797790285595167</v>
       </c>
       <c r="I17">
-        <v>0.052253812478953193</v>
+        <v>5.2253812478953193E-2</v>
       </c>
       <c r="J17">
         <v>0.86529941831830648</v>
@@ -1001,9 +1000,9 @@
         <v>0.97439398555721257</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.042126753189627761</v>
+        <v>4.2126753189627761E-2</v>
       </c>
       <c r="B18">
         <v>0.90444310774758652</v>
@@ -1015,7 +1014,7 @@
         <v>0.97893662340518606</v>
       </c>
       <c r="E18">
-        <v>0.031809021560616671</v>
+        <v>3.1809021560616671E-2</v>
       </c>
       <c r="F18">
         <v>0.49020991586418511</v>
@@ -1027,7 +1026,7 @@
         <v>0.98416242538410603</v>
       </c>
       <c r="I18">
-        <v>0.063304877494866227</v>
+        <v>6.3304877494866227E-2</v>
       </c>
       <c r="J18">
         <v>0.84512738612466931</v>
@@ -1039,9 +1038,9 @@
         <v>0.9698884875375221</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.046687679792988587</v>
+        <v>4.6687679792988587E-2</v>
       </c>
       <c r="B19">
         <v>0.88844958861951684</v>
@@ -1053,7 +1052,7 @@
         <v>0.97665616010350575</v>
       </c>
       <c r="E19">
-        <v>0.031167329635390144</v>
+        <v>3.1167329635390144E-2</v>
       </c>
       <c r="F19">
         <v>0.46756597748310325</v>
@@ -1065,7 +1064,7 @@
         <v>0.98460719676636432</v>
       </c>
       <c r="I19">
-        <v>0.09109603182249873</v>
+        <v>9.109603182249873E-2</v>
       </c>
       <c r="J19">
         <v>0.82197923280265128</v>
@@ -1077,9 +1076,9 @@
         <v>0.957939796016682</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.027049974528273617</v>
+        <v>2.7049974528273617E-2</v>
       </c>
       <c r="B20">
         <v>0.91659134768778416</v>
@@ -1091,7 +1090,7 @@
         <v>0.98647501273586313</v>
       </c>
       <c r="E20">
-        <v>0.0029866847798943174</v>
+        <v>2.9866847798943174E-3</v>
       </c>
       <c r="F20">
         <v>0.29717661109159543</v>
@@ -1103,7 +1102,7 @@
         <v>0.99850665761005286</v>
       </c>
       <c r="I20">
-        <v>0.053657107277588545</v>
+        <v>5.3657107277588545E-2</v>
       </c>
       <c r="J20">
         <v>0.90014815628869616</v>
@@ -1115,9 +1114,9 @@
         <v>0.97332238992496112</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.057052963898780826</v>
+        <v>5.7052963898780826E-2</v>
       </c>
       <c r="B21">
         <v>0.86388257957744929</v>
@@ -1141,7 +1140,7 @@
         <v>0.90262475958559829</v>
       </c>
       <c r="I21">
-        <v>0.09014260547255909</v>
+        <v>9.014260547255909E-2</v>
       </c>
       <c r="J21">
         <v>0.72067264430370848</v>
@@ -1153,9 +1152,9 @@
         <v>0.961212245286441</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.0076436258755010669</v>
+        <v>7.6436258755010669E-3</v>
       </c>
       <c r="B22">
         <v>0.56104707841702273</v>
@@ -1191,9 +1190,9 @@
         <v>0.92452978855548451</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.03471398624261967</v>
+        <v>3.471398624261967E-2</v>
       </c>
       <c r="B23">
         <v>0.81214200742158915</v>
@@ -1217,7 +1216,7 @@
         <v>0.92746390236918408</v>
       </c>
       <c r="I23">
-        <v>0.066959849732993987</v>
+        <v>6.6959849732993987E-2</v>
       </c>
       <c r="J23">
         <v>0.79011495543387034</v>
@@ -1229,10 +1228,13 @@
         <v>0.96885197033124137</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>1</v>
       </c>
@@ -1264,9 +1266,9 @@
         <v>0.95101331789229882</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.039634687751046463</v>
+        <v>3.9634687751046463E-2</v>
       </c>
       <c r="B25">
         <v>0.87270881084380214</v>
@@ -1278,7 +1280,7 @@
         <v>0.98018265612447675</v>
       </c>
       <c r="E25">
-        <v>0.063785886431863351</v>
+        <v>6.3785886431863351E-2</v>
       </c>
       <c r="F25">
         <v>0.63011587533212088</v>
@@ -1290,7 +1292,7 @@
         <v>0.96810705678406839</v>
       </c>
       <c r="I25">
-        <v>0.014316519386072469</v>
+        <v>1.4316519386072469E-2</v>
       </c>
       <c r="J25">
         <v>0.8012709516597516</v>
@@ -1302,9 +1304,9 @@
         <v>0.99287556551520018</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.049799396634839677</v>
+        <v>4.9799396634839677E-2</v>
       </c>
       <c r="B26">
         <v>0.83924781400588377</v>
@@ -1328,7 +1330,7 @@
         <v>0.8957033558299381</v>
       </c>
       <c r="I26">
-        <v>0.08527353590644729</v>
+        <v>8.527353590644729E-2</v>
       </c>
       <c r="J26">
         <v>0.70551458064389905</v>
@@ -1340,9 +1342,9 @@
         <v>0.9638836189469101</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.033545063936647808</v>
+        <v>3.3545063936647808E-2</v>
       </c>
       <c r="B27">
         <v>0.83462014181250166</v>
@@ -1366,7 +1368,7 @@
         <v>0.92808117267497747</v>
       </c>
       <c r="I27">
-        <v>0.075991804805364119</v>
+        <v>7.5991804805364119E-2</v>
       </c>
       <c r="J27">
         <v>0.77801680189781663</v>
@@ -1378,9 +1380,9 @@
         <v>0.96498095709083431</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.003801248981808308</v>
+        <v>3.801248981808308E-3</v>
       </c>
       <c r="B28">
         <v>0.8697224700734203</v>
@@ -1392,7 +1394,7 @@
         <v>0.99985495234148358</v>
       </c>
       <c r="E28">
-        <v>0.023207625362619146</v>
+        <v>2.3207625362619146E-2</v>
       </c>
       <c r="F28">
         <v>0.66677697704379424</v>
@@ -1404,7 +1406,7 @@
         <v>0.98842667352606328</v>
       </c>
       <c r="I28">
-        <v>0.039670177343984453</v>
+        <v>3.9670177343984453E-2</v>
       </c>
       <c r="J28">
         <v>0.87525640260383974</v>
@@ -1416,9 +1418,9 @@
         <v>0.98017634365577255</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.0045584263852444891</v>
+        <v>4.5584263852444891E-3</v>
       </c>
       <c r="B29">
         <v>0.61234453198276062</v>
@@ -1454,9 +1456,9 @@
         <v>0.9480511769550477</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.040687231959113779</v>
+        <v>4.0687231959113779E-2</v>
       </c>
       <c r="B30">
         <v>0.78809316417061925</v>
@@ -1492,9 +1494,9 @@
         <v>0.93814109445337546</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.039696479705022207</v>
+        <v>3.9696479705022207E-2</v>
       </c>
       <c r="B31">
         <v>0.83381115386789206</v>
@@ -1518,7 +1520,7 @@
         <v>0.93708840181135888</v>
       </c>
       <c r="I31">
-        <v>0.070222845960399405</v>
+        <v>7.0222845960399405E-2</v>
       </c>
       <c r="J31">
         <v>0.81490259796181663</v>
@@ -1530,9 +1532,9 @@
         <v>0.96744805854228322</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.0040791500799440576</v>
+        <v>4.0791500799440576E-3</v>
       </c>
       <c r="B32">
         <v>0.52256963328328587</v>
@@ -1568,9 +1570,9 @@
         <v>0.92640242029571418</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.030596965186287794</v>
+        <v>3.0596965186287794E-2</v>
       </c>
       <c r="B33">
         <v>0.76899631715732231</v>
@@ -1594,7 +1596,7 @@
         <v>0.91875985870120647</v>
       </c>
       <c r="I33">
-        <v>0.086774344049232413</v>
+        <v>8.6774344049232413E-2</v>
       </c>
       <c r="J33">
         <v>0.73738254236567791</v>
@@ -1606,9 +1608,9 @@
         <v>0.96119096813371552</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.04149509027557808</v>
+        <v>4.149509027557808E-2</v>
       </c>
       <c r="B34">
         <v>0.90675294854017863</v>
@@ -1620,7 +1622,7 @@
         <v>0.97925245486221102</v>
       </c>
       <c r="E34">
-        <v>0.045081590321558854</v>
+        <v>4.5081590321558854E-2</v>
       </c>
       <c r="F34">
         <v>0.71806297761081783</v>
@@ -1632,7 +1634,7 @@
         <v>0.97750007663461635</v>
       </c>
       <c r="I34">
-        <v>0.0082867565164968793</v>
+        <v>8.2867565164968793E-3</v>
       </c>
       <c r="J34">
         <v>0.83560792198618283</v>
@@ -1644,9 +1646,9 @@
         <v>0.9958702456735502</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.056308116511689307</v>
+        <v>5.6308116511689307E-2</v>
       </c>
       <c r="B35">
         <v>0.87436694416149374</v>
@@ -1670,7 +1672,7 @@
         <v>0.93519795058324284</v>
       </c>
       <c r="I35">
-        <v>0.043835616438356165</v>
+        <v>4.3835616438356165E-2</v>
       </c>
       <c r="J35">
         <v>0.76740992972545019</v>
@@ -1682,9 +1684,9 @@
         <v>0.97963440986379591</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.035080368506229934</v>
+        <v>3.5080368506229934E-2</v>
       </c>
       <c r="B36">
         <v>0.82599774517148339</v>
@@ -1708,7 +1710,7 @@
         <v>0.94839900209322991</v>
       </c>
       <c r="I36">
-        <v>0.045502872735462177</v>
+        <v>4.5502872735462177E-2</v>
       </c>
       <c r="J36">
         <v>0.79317996220905163</v>
@@ -1720,9 +1722,9 @@
         <v>0.97868449491008191</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.023704542879800613</v>
+        <v>2.3704542879800613E-2</v>
       </c>
       <c r="B37">
         <v>0.80384697687886653</v>
@@ -1734,7 +1736,7 @@
         <v>0.98814772856009969</v>
       </c>
       <c r="E37">
-        <v>0.0850662739322533</v>
+        <v>8.50662739322533E-2</v>
       </c>
       <c r="F37">
         <v>0.53764244854955245</v>
@@ -1746,7 +1748,7 @@
         <v>0.9574970733733621</v>
       </c>
       <c r="I37">
-        <v>0.049439220573241197</v>
+        <v>4.9439220573241197E-2</v>
       </c>
       <c r="J37">
         <v>0.8319892917233217</v>
@@ -1758,9 +1760,9 @@
         <v>0.97605377440428986</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.031791041438379138</v>
+        <v>3.1791041438379138E-2</v>
       </c>
       <c r="B38">
         <v>0.79097666962689983</v>
@@ -1796,9 +1798,9 @@
         <v>0.95453406981684819</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.051350403831270632</v>
+        <v>5.1350403831270632E-2</v>
       </c>
       <c r="B39">
         <v>0.80954494339776462</v>
@@ -1834,9 +1836,9 @@
         <v>0.95620916762029506</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.066034912718204483</v>
+        <v>6.6034912718204483E-2</v>
       </c>
       <c r="B40">
         <v>0.80483198503251763</v>
@@ -1872,10 +1874,13 @@
         <v>0.93202083027724814</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>1</v>
       </c>
@@ -1907,9 +1912,9 @@
         <v>0.86221995405579954</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.068743150789596627</v>
+        <v>6.8743150789596627E-2</v>
       </c>
       <c r="B42">
         <v>0.64187766108014455</v>
@@ -1945,10 +1950,13 @@
         <v>0.88184327987856614</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>1</v>
       </c>
@@ -1980,9 +1988,9 @@
         <v>0.87378770157717522</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.023544884496465662</v>
+        <v>2.3544884496465662E-2</v>
       </c>
       <c r="B44">
         <v>0.60773442956596158</v>
@@ -2018,9 +2026,9 @@
         <v>0.93534850014863757</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.023291512694080342</v>
+        <v>2.3291512694080342E-2</v>
       </c>
       <c r="B45">
         <v>0.66059160244481308</v>
@@ -2056,9 +2064,9 @@
         <v>0.92578926940553785</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.035673832136322331</v>
+        <v>3.5673832136322331E-2</v>
       </c>
       <c r="B46">
         <v>0.68547505711001055</v>
@@ -2094,9 +2102,9 @@
         <v>0.93701218862846469</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.040853296566515387</v>
+        <v>4.0853296566515387E-2</v>
       </c>
       <c r="B47">
         <v>0.66293242796120411</v>
@@ -2132,9 +2140,9 @@
         <v>0.92757632625444419</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.019889139965621801</v>
+        <v>1.9889139965621801E-2</v>
       </c>
       <c r="B48">
         <v>0.71056893667498122</v>
@@ -2170,9 +2178,9 @@
         <v>0.92699293766215385</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.017526984697867572</v>
+        <v>1.7526984697867572E-2</v>
       </c>
       <c r="B49">
         <v>0.60004885661870377</v>
@@ -2208,9 +2216,9 @@
         <v>0.92277072172479024</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.014804204302590926</v>
+        <v>1.4804204302590926E-2</v>
       </c>
       <c r="B50">
         <v>0.60401200194976445</v>
@@ -2246,9 +2254,9 @@
         <v>0.93971902742803304</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.016307733983475552</v>
+        <v>1.6307733983475552E-2</v>
       </c>
       <c r="B51">
         <v>0.65087470853501794</v>
@@ -2284,9 +2292,9 @@
         <v>0.94211831556406933</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.025372669291900192</v>
+        <v>2.5372669291900192E-2</v>
       </c>
       <c r="B52">
         <v>0.65655466533748674</v>
@@ -2322,9 +2330,9 @@
         <v>0.93217844330409039</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.026405578374247778</v>
+        <v>2.6405578374247778E-2</v>
       </c>
       <c r="B53">
         <v>0.65543607689242589</v>
@@ -2360,10 +2368,13 @@
         <v>0.94117521571624163</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>1</v>
       </c>
@@ -2395,10 +2406,13 @@
         <v>0.9005133214181803</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>1</v>
       </c>
@@ -2430,10 +2444,13 @@
         <v>0.92040082239835208</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>1</v>
       </c>
@@ -2465,9 +2482,9 @@
         <v>0.89733504422671673</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.023165029245482836</v>
+        <v>2.3165029245482836E-2</v>
       </c>
       <c r="B57">
         <v>0.69202142887196427</v>
@@ -2503,9 +2520,9 @@
         <v>0.94402202779542832</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.031430996338791414</v>
+        <v>3.1430996338791414E-2</v>
       </c>
       <c r="B58">
         <v>0.68612460043223522</v>
@@ -2541,9 +2558,9 @@
         <v>0.94158312648037468</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.032725327303743931</v>
+        <v>3.2725327303743931E-2</v>
       </c>
       <c r="B59">
         <v>0.70066794369410279</v>
@@ -2579,9 +2596,9 @@
         <v>0.94642262307327363</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.028759629646122279</v>
+        <v>2.8759629646122279E-2</v>
       </c>
       <c r="B60">
         <v>0.65477881836183349</v>
@@ -2617,9 +2634,9 @@
         <v>0.93934536104250799</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.037346312657147468</v>
+        <v>3.7346312657147468E-2</v>
       </c>
       <c r="B61">
         <v>0.88344566388431855</v>
@@ -2631,7 +2648,7 @@
         <v>0.98132684367142631</v>
       </c>
       <c r="E61">
-        <v>0.007121272536141858</v>
+        <v>7.121272536141858E-3</v>
       </c>
       <c r="F61">
         <v>0.55959251709661062</v>
@@ -2655,9 +2672,9 @@
         <v>0.93958616871583123</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.025949401069851163</v>
+        <v>2.5949401069851163E-2</v>
       </c>
       <c r="B62">
         <v>0.90320963139772281</v>
@@ -2669,7 +2686,7 @@
         <v>0.98702529946507445</v>
       </c>
       <c r="E62">
-        <v>0.0065502245104992925</v>
+        <v>6.5502245104992925E-3</v>
       </c>
       <c r="F62">
         <v>0.64784451815830757</v>
@@ -2681,7 +2698,7 @@
         <v>0.99672488774475032</v>
       </c>
       <c r="I62">
-        <v>0.098872219757489097</v>
+        <v>9.8872219757489097E-2</v>
       </c>
       <c r="J62">
         <v>0.81323878233795677</v>
@@ -2693,9 +2710,9 @@
         <v>0.95057519335595864</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.033889923448842972</v>
+        <v>3.3889923448842972E-2</v>
       </c>
       <c r="B63">
         <v>0.87624009951317083</v>
@@ -2707,7 +2724,7 @@
         <v>0.9830550382755785</v>
       </c>
       <c r="E63">
-        <v>0.02989422998126489</v>
+        <v>2.989422998126489E-2</v>
       </c>
       <c r="F63">
         <v>0.6025015853521476</v>
@@ -2731,9 +2748,9 @@
         <v>0.90673983627264532</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.053851820040783475</v>
+        <v>5.3851820040783475E-2</v>
       </c>
       <c r="B64">
         <v>0.85164028742141296</v>
@@ -2745,7 +2762,7 @@
         <v>0.9730740899796082</v>
       </c>
       <c r="E64">
-        <v>0.046841271511576646</v>
+        <v>4.6841271511576646E-2</v>
       </c>
       <c r="F64">
         <v>0.4850697163522969</v>
@@ -2769,9 +2786,9 @@
         <v>0.88611840290319188</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.040992863014828657</v>
+        <v>4.0992863014828657E-2</v>
       </c>
       <c r="B65">
         <v>0.86661090261884088</v>
@@ -2783,7 +2800,7 @@
         <v>0.97950356849258569</v>
       </c>
       <c r="E65">
-        <v>0.016191199519839338</v>
+        <v>1.6191199519839338E-2</v>
       </c>
       <c r="F65">
         <v>0.53621683532020048</v>
@@ -2807,9 +2824,9 @@
         <v>0.92875293818690041</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.036867228250029374</v>
+        <v>3.6867228250029374E-2</v>
       </c>
       <c r="B66">
         <v>0.88488727409715162</v>
@@ -2821,7 +2838,7 @@
         <v>0.98156638587498524</v>
       </c>
       <c r="E66">
-        <v>0.013443026976220598</v>
+        <v>1.3443026976220598E-2</v>
       </c>
       <c r="F66">
         <v>0.6162432349713618</v>
@@ -2845,9 +2862,9 @@
         <v>0.94364584727956313</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.04772305975497209</v>
+        <v>4.772305975497209E-2</v>
       </c>
       <c r="B67">
         <v>0.86494722523290024</v>
@@ -2859,7 +2876,7 @@
         <v>0.97613847012251398</v>
       </c>
       <c r="E67">
-        <v>0.023770298893857379</v>
+        <v>2.3770298893857379E-2</v>
       </c>
       <c r="F67">
         <v>0.52060241964386145</v>
@@ -2883,9 +2900,9 @@
         <v>0.91657411349486939</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.034178366815018811</v>
+        <v>3.4178366815018811E-2</v>
       </c>
       <c r="B68">
         <v>0.89741979316038778</v>
@@ -2897,7 +2914,7 @@
         <v>0.98291081659249058</v>
       </c>
       <c r="E68">
-        <v>0.0059996557574565398</v>
+        <v>5.9996557574565398E-3</v>
       </c>
       <c r="F68">
         <v>0.63265885091017815</v>
@@ -2909,7 +2926,7 @@
         <v>0.99700017212127179</v>
       </c>
       <c r="I68">
-        <v>0.093568401813010724</v>
+        <v>9.3568401813010724E-2</v>
       </c>
       <c r="J68">
         <v>0.83646406946659757</v>
@@ -2921,9 +2938,9 @@
         <v>0.95322672742820758</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.038018527292629931</v>
+        <v>3.8018527292629931E-2</v>
       </c>
       <c r="B69">
         <v>0.88869192356897841</v>
@@ -2935,7 +2952,7 @@
         <v>0.98099073635368506</v>
       </c>
       <c r="E69">
-        <v>0.0075388202563198888</v>
+        <v>7.5388202563198888E-3</v>
       </c>
       <c r="F69">
         <v>0.59986675405748358</v>
@@ -2959,9 +2976,9 @@
         <v>0.94924989127449633</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.032994988015819578</v>
+        <v>3.2994988015819578E-2</v>
       </c>
       <c r="B70">
         <v>0.89573460431984775</v>
@@ -2973,7 +2990,7 @@
         <v>0.98350250599209021</v>
       </c>
       <c r="E70">
-        <v>0.0037503705559143023</v>
+        <v>3.7503705559143023E-3</v>
       </c>
       <c r="F70">
         <v>0.56430689602655382</v>
@@ -2985,7 +3002,7 @@
         <v>0.99812481472204284</v>
       </c>
       <c r="I70">
-        <v>0.081800361708532776</v>
+        <v>8.1800361708532776E-2</v>
       </c>
       <c r="J70">
         <v>0.85319689937113918</v>
@@ -2997,9 +3014,9 @@
         <v>0.95910288317396564</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.049757162056072279</v>
+        <v>4.9757162056072279E-2</v>
       </c>
       <c r="B71">
         <v>0.87032908051232216</v>
@@ -3011,7 +3028,7 @@
         <v>0.9751214189719638</v>
       </c>
       <c r="E71">
-        <v>0.028869107021675777</v>
+        <v>2.8869107021675777E-2</v>
       </c>
       <c r="F71">
         <v>0.5575955129570852</v>
@@ -3035,9 +3052,9 @@
         <v>0.91814764546990801</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.049354871482271662</v>
+        <v>4.9354871482271662E-2</v>
       </c>
       <c r="B72">
         <v>0.85679260143025937</v>
@@ -3049,7 +3066,7 @@
         <v>0.9753225642588641</v>
       </c>
       <c r="E72">
-        <v>0.035596000058054307</v>
+        <v>3.5596000058054307E-2</v>
       </c>
       <c r="F72">
         <v>0.4646821881408762</v>
@@ -3073,9 +3090,9 @@
         <v>0.90483069911902592</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.052629083021966644</v>
+        <v>5.2629083021966644E-2</v>
       </c>
       <c r="B73">
         <v>0.8599170183775362</v>
@@ -3087,7 +3104,7 @@
         <v>0.97368545848901666</v>
       </c>
       <c r="E73">
-        <v>0.031346327120975008</v>
+        <v>3.1346327120975008E-2</v>
       </c>
       <c r="F73">
         <v>0.51047930863477575</v>
@@ -3111,9 +3128,9 @@
         <v>0.90229200829645595</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0.040392816321683567</v>
+        <v>4.0392816321683567E-2</v>
       </c>
       <c r="B74">
         <v>0.88196486983725697</v>
@@ -3125,7 +3142,7 @@
         <v>0.97980359183915822</v>
       </c>
       <c r="E74">
-        <v>0.0093305539592297201</v>
+        <v>9.3305539592297201E-3</v>
       </c>
       <c r="F74">
         <v>0.54322299175622502</v>
@@ -3149,9 +3166,9 @@
         <v>0.93951680453973863</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0.039578363692935034</v>
+        <v>3.9578363692935034E-2</v>
       </c>
       <c r="B75">
         <v>0.8711594261033776</v>
@@ -3163,7 +3180,7 @@
         <v>0.9802108181535325</v>
       </c>
       <c r="E75">
-        <v>0.016677754814490648</v>
+        <v>1.6677754814490648E-2</v>
       </c>
       <c r="F75">
         <v>0.5540139753919322</v>
@@ -3187,9 +3204,9 @@
         <v>0.92509134019870964</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0.053605517368427114</v>
+        <v>5.3605517368427114E-2</v>
       </c>
       <c r="B76">
         <v>0.86163588771148292</v>
@@ -3201,7 +3218,7 @@
         <v>0.97319724131578633</v>
       </c>
       <c r="E76">
-        <v>0.029866556135078812</v>
+        <v>2.9866556135078812E-2</v>
       </c>
       <c r="F76">
         <v>0.47917331681000647</v>
@@ -3225,9 +3242,9 @@
         <v>0.90606733983473986</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0.047221001482345065</v>
+        <v>4.7221001482345065E-2</v>
       </c>
       <c r="B77">
         <v>0.86850342953921711</v>
@@ -3239,7 +3256,7 @@
         <v>0.97638949925882756</v>
       </c>
       <c r="E77">
-        <v>0.029022995703248636</v>
+        <v>2.9022995703248636E-2</v>
       </c>
       <c r="F77">
         <v>0.55910923743482399</v>
@@ -3263,9 +3280,9 @@
         <v>0.91778981060442189</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.032706420668882852</v>
+        <v>3.2706420668882852E-2</v>
       </c>
       <c r="B78">
         <v>0.89215810535181139</v>
@@ -3277,7 +3294,7 @@
         <v>0.98364678966555852</v>
       </c>
       <c r="E78">
-        <v>0.0032224412255233638</v>
+        <v>3.2224412255233638E-3</v>
       </c>
       <c r="F78">
         <v>0.5387538549263946</v>
@@ -3289,7 +3306,7 @@
         <v>0.99838877938723836</v>
       </c>
       <c r="I78">
-        <v>0.094403497615981852</v>
+        <v>9.4403497615981852E-2</v>
       </c>
       <c r="J78">
         <v>0.83691449942037366</v>
@@ -3301,9 +3318,9 @@
         <v>0.95280730299320437</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.040658336341364135</v>
+        <v>4.0658336341364135E-2</v>
       </c>
       <c r="B79">
         <v>0.86319032942079288</v>
@@ -3315,7 +3332,7 @@
         <v>0.97967083182931791</v>
       </c>
       <c r="E79">
-        <v>0.0088935310697581538</v>
+        <v>8.8935310697581538E-3</v>
       </c>
       <c r="F79">
         <v>0.52649400359345766</v>
@@ -3339,9 +3356,9 @@
         <v>0.92419890379677483</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0.028725514372406696</v>
+        <v>2.8725514372406696E-2</v>
       </c>
       <c r="B80">
         <v>0.9048096557303007</v>
@@ -3353,7 +3370,7 @@
         <v>0.98563724281379672</v>
       </c>
       <c r="E80">
-        <v>0.001226559735817903</v>
+        <v>1.226559735817903E-3</v>
       </c>
       <c r="F80">
         <v>0.6586918131403835</v>
@@ -3365,7 +3382,7 @@
         <v>0.99938672013209107</v>
       </c>
       <c r="I80">
-        <v>0.069720914773397369</v>
+        <v>6.9720914773397369E-2</v>
       </c>
       <c r="J80">
         <v>0.86270290488755164</v>
@@ -3377,9 +3394,9 @@
         <v>0.96513954261330126</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.037346312657147468</v>
+        <v>3.7346312657147468E-2</v>
       </c>
       <c r="B81">
         <v>0.88344566388431855</v>
@@ -3391,7 +3408,7 @@
         <v>0.98132684367142631</v>
       </c>
       <c r="E81">
-        <v>0.007121272536141858</v>
+        <v>7.121272536141858E-3</v>
       </c>
       <c r="F81">
         <v>0.55959251709661062</v>
@@ -3415,9 +3432,9 @@
         <v>0.93958616871583123</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0.025949401069851163</v>
+        <v>2.5949401069851163E-2</v>
       </c>
       <c r="B82">
         <v>0.90320963139772281</v>
@@ -3429,7 +3446,7 @@
         <v>0.98702529946507445</v>
       </c>
       <c r="E82">
-        <v>0.0065502245104992925</v>
+        <v>6.5502245104992925E-3</v>
       </c>
       <c r="F82">
         <v>0.64784451815830757</v>
@@ -3441,7 +3458,7 @@
         <v>0.99672488774475032</v>
       </c>
       <c r="I82">
-        <v>0.098872219757489097</v>
+        <v>9.8872219757489097E-2</v>
       </c>
       <c r="J82">
         <v>0.81323878233795677</v>
@@ -3453,9 +3470,9 @@
         <v>0.95057519335595864</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0.033889923448842972</v>
+        <v>3.3889923448842972E-2</v>
       </c>
       <c r="B83">
         <v>0.87624009951317083</v>
@@ -3467,7 +3484,7 @@
         <v>0.9830550382755785</v>
       </c>
       <c r="E83">
-        <v>0.02989422998126489</v>
+        <v>2.989422998126489E-2</v>
       </c>
       <c r="F83">
         <v>0.6025015853521476</v>
@@ -3491,9 +3508,9 @@
         <v>0.90673983627264532</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>0.053851820040783475</v>
+        <v>5.3851820040783475E-2</v>
       </c>
       <c r="B84">
         <v>0.85164028742141296</v>
@@ -3505,7 +3522,7 @@
         <v>0.9730740899796082</v>
       </c>
       <c r="E84">
-        <v>0.046841271511576646</v>
+        <v>4.6841271511576646E-2</v>
       </c>
       <c r="F84">
         <v>0.4850697163522969</v>
@@ -3529,9 +3546,9 @@
         <v>0.88611840290319188</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>0.040992863014828657</v>
+        <v>4.0992863014828657E-2</v>
       </c>
       <c r="B85">
         <v>0.86661090261884088</v>
@@ -3543,7 +3560,7 @@
         <v>0.97950356849258569</v>
       </c>
       <c r="E85">
-        <v>0.016191199519839338</v>
+        <v>1.6191199519839338E-2</v>
       </c>
       <c r="F85">
         <v>0.53621683532020048</v>
@@ -3567,9 +3584,9 @@
         <v>0.92875293818690041</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0.036867228250029374</v>
+        <v>3.6867228250029374E-2</v>
       </c>
       <c r="B86">
         <v>0.88488727409715162</v>
@@ -3581,7 +3598,7 @@
         <v>0.98156638587498524</v>
       </c>
       <c r="E86">
-        <v>0.013443026976220598</v>
+        <v>1.3443026976220598E-2</v>
       </c>
       <c r="F86">
         <v>0.6162432349713618</v>
@@ -3605,9 +3622,9 @@
         <v>0.94364584727956313</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>0.04772305975497209</v>
+        <v>4.772305975497209E-2</v>
       </c>
       <c r="B87">
         <v>0.86494722523290024</v>
@@ -3619,7 +3636,7 @@
         <v>0.97613847012251398</v>
       </c>
       <c r="E87">
-        <v>0.023770298893857379</v>
+        <v>2.3770298893857379E-2</v>
       </c>
       <c r="F87">
         <v>0.52060241964386145</v>
@@ -3643,9 +3660,9 @@
         <v>0.91657411349486939</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0.034178366815018811</v>
+        <v>3.4178366815018811E-2</v>
       </c>
       <c r="B88">
         <v>0.89741979316038778</v>
@@ -3657,7 +3674,7 @@
         <v>0.98291081659249058</v>
       </c>
       <c r="E88">
-        <v>0.0059996557574565398</v>
+        <v>5.9996557574565398E-3</v>
       </c>
       <c r="F88">
         <v>0.63265885091017815</v>
@@ -3669,7 +3686,7 @@
         <v>0.99700017212127179</v>
       </c>
       <c r="I88">
-        <v>0.093568401813010724</v>
+        <v>9.3568401813010724E-2</v>
       </c>
       <c r="J88">
         <v>0.83646406946659757</v>
@@ -3681,9 +3698,9 @@
         <v>0.95322672742820758</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>0.038018527292629931</v>
+        <v>3.8018527292629931E-2</v>
       </c>
       <c r="B89">
         <v>0.88869192356897841</v>
@@ -3695,7 +3712,7 @@
         <v>0.98099073635368506</v>
       </c>
       <c r="E89">
-        <v>0.0075388202563198888</v>
+        <v>7.5388202563198888E-3</v>
       </c>
       <c r="F89">
         <v>0.59986675405748358</v>
@@ -3719,9 +3736,9 @@
         <v>0.94924989127449633</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>0.032994988015819578</v>
+        <v>3.2994988015819578E-2</v>
       </c>
       <c r="B90">
         <v>0.89573460431984775</v>
@@ -3733,7 +3750,7 @@
         <v>0.98350250599209021</v>
       </c>
       <c r="E90">
-        <v>0.0037503705559143023</v>
+        <v>3.7503705559143023E-3</v>
       </c>
       <c r="F90">
         <v>0.56430689602655382</v>
@@ -3745,7 +3762,7 @@
         <v>0.99812481472204284</v>
       </c>
       <c r="I90">
-        <v>0.081800361708532776</v>
+        <v>8.1800361708532776E-2</v>
       </c>
       <c r="J90">
         <v>0.85319689937113918</v>
@@ -3757,9 +3774,9 @@
         <v>0.95910288317396564</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0.049757162056072279</v>
+        <v>4.9757162056072279E-2</v>
       </c>
       <c r="B91">
         <v>0.87032908051232216</v>
@@ -3771,7 +3788,7 @@
         <v>0.9751214189719638</v>
       </c>
       <c r="E91">
-        <v>0.028869107021675777</v>
+        <v>2.8869107021675777E-2</v>
       </c>
       <c r="F91">
         <v>0.5575955129570852</v>
@@ -3795,9 +3812,9 @@
         <v>0.91814764546990801</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>0.049354871482271662</v>
+        <v>4.9354871482271662E-2</v>
       </c>
       <c r="B92">
         <v>0.85679260143025937</v>
@@ -3809,7 +3826,7 @@
         <v>0.9753225642588641</v>
       </c>
       <c r="E92">
-        <v>0.035596000058054307</v>
+        <v>3.5596000058054307E-2</v>
       </c>
       <c r="F92">
         <v>0.4646821881408762</v>
@@ -3833,9 +3850,9 @@
         <v>0.90483069911902592</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>0.052629083021966644</v>
+        <v>5.2629083021966644E-2</v>
       </c>
       <c r="B93">
         <v>0.8599170183775362</v>
@@ -3847,7 +3864,7 @@
         <v>0.97368545848901666</v>
       </c>
       <c r="E93">
-        <v>0.031346327120975008</v>
+        <v>3.1346327120975008E-2</v>
       </c>
       <c r="F93">
         <v>0.51047930863477575</v>
@@ -3871,9 +3888,9 @@
         <v>0.90229200829645595</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>0.040392816321683567</v>
+        <v>4.0392816321683567E-2</v>
       </c>
       <c r="B94">
         <v>0.88196486983725697</v>
@@ -3885,7 +3902,7 @@
         <v>0.97980359183915822</v>
       </c>
       <c r="E94">
-        <v>0.0093305539592297201</v>
+        <v>9.3305539592297201E-3</v>
       </c>
       <c r="F94">
         <v>0.54322299175622502</v>
@@ -3909,9 +3926,9 @@
         <v>0.93951680453973863</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>0.039578363692935034</v>
+        <v>3.9578363692935034E-2</v>
       </c>
       <c r="B95">
         <v>0.8711594261033776</v>
@@ -3923,7 +3940,7 @@
         <v>0.9802108181535325</v>
       </c>
       <c r="E95">
-        <v>0.016677754814490648</v>
+        <v>1.6677754814490648E-2</v>
       </c>
       <c r="F95">
         <v>0.5540139753919322</v>
@@ -3947,9 +3964,9 @@
         <v>0.92509134019870964</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>0.053605517368427114</v>
+        <v>5.3605517368427114E-2</v>
       </c>
       <c r="B96">
         <v>0.86163588771148292</v>
@@ -3961,7 +3978,7 @@
         <v>0.97319724131578633</v>
       </c>
       <c r="E96">
-        <v>0.029866556135078812</v>
+        <v>2.9866556135078812E-2</v>
       </c>
       <c r="F96">
         <v>0.47917331681000647</v>
@@ -3985,9 +4002,9 @@
         <v>0.90606733983473986</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>0.047221001482345065</v>
+        <v>4.7221001482345065E-2</v>
       </c>
       <c r="B97">
         <v>0.86850342953921711</v>
@@ -3999,7 +4016,7 @@
         <v>0.97638949925882756</v>
       </c>
       <c r="E97">
-        <v>0.029022995703248636</v>
+        <v>2.9022995703248636E-2</v>
       </c>
       <c r="F97">
         <v>0.55910923743482399</v>
@@ -4023,9 +4040,9 @@
         <v>0.91778981060442189</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>0.032706420668882852</v>
+        <v>3.2706420668882852E-2</v>
       </c>
       <c r="B98">
         <v>0.89215810535181139</v>
@@ -4037,7 +4054,7 @@
         <v>0.98364678966555852</v>
       </c>
       <c r="E98">
-        <v>0.0032224412255233638</v>
+        <v>3.2224412255233638E-3</v>
       </c>
       <c r="F98">
         <v>0.5387538549263946</v>
@@ -4049,7 +4066,7 @@
         <v>0.99838877938723836</v>
       </c>
       <c r="I98">
-        <v>0.094403497615981852</v>
+        <v>9.4403497615981852E-2</v>
       </c>
       <c r="J98">
         <v>0.83691449942037366</v>
@@ -4061,9 +4078,9 @@
         <v>0.95280730299320437</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>0.040658336341364135</v>
+        <v>4.0658336341364135E-2</v>
       </c>
       <c r="B99">
         <v>0.86319032942079288</v>
@@ -4075,7 +4092,7 @@
         <v>0.97967083182931791</v>
       </c>
       <c r="E99">
-        <v>0.0088935310697581538</v>
+        <v>8.8935310697581538E-3</v>
       </c>
       <c r="F99">
         <v>0.52649400359345766</v>
@@ -4099,9 +4116,9 @@
         <v>0.92419890379677483</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>0.028725514372406696</v>
+        <v>2.8725514372406696E-2</v>
       </c>
       <c r="B100">
         <v>0.9048096557303007</v>
@@ -4113,7 +4130,7 @@
         <v>0.98563724281379672</v>
       </c>
       <c r="E100">
-        <v>0.001226559735817903</v>
+        <v>1.226559735817903E-3</v>
       </c>
       <c r="F100">
         <v>0.6586918131403835</v>
@@ -4125,7 +4142,7 @@
         <v>0.99938672013209107</v>
       </c>
       <c r="I100">
-        <v>0.069720914773397369</v>
+        <v>6.9720914773397369E-2</v>
       </c>
       <c r="J100">
         <v>0.86270290488755164</v>
@@ -4137,9 +4154,9 @@
         <v>0.96513954261330126</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>0.0034407302252457772</v>
+        <v>3.4407302252457772E-3</v>
       </c>
       <c r="B101">
         <v>0.75631800456948428</v>
@@ -4175,7 +4192,7 @@
         <v>0.90579039443438636</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.10875756437821724</v>
       </c>
@@ -4201,7 +4218,7 @@
         <v>0.91668079016251458</v>
       </c>
       <c r="I102">
-        <v>0.046959792899703243</v>
+        <v>4.6959792899703243E-2</v>
       </c>
       <c r="J102">
         <v>0.52780366519223754</v>
@@ -4213,9 +4230,9 @@
         <v>0.97760678193654738</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>0.005136106831022085</v>
+        <v>5.136106831022085E-3</v>
       </c>
       <c r="B103">
         <v>0.70582993434725294</v>
@@ -4251,9 +4268,9 @@
         <v>0.91418101224396631</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>0.048408956641606909</v>
+        <v>4.8408956641606909E-2</v>
       </c>
       <c r="B104">
         <v>0.68170893842972324</v>
@@ -4277,7 +4294,7 @@
         <v>0.9224235239908205</v>
       </c>
       <c r="I104">
-        <v>0.070873925114197558</v>
+        <v>7.0873925114197558E-2</v>
       </c>
       <c r="J104">
         <v>0.59442074867524264</v>
@@ -4289,9 +4306,9 @@
         <v>0.9656802365167072</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>0.013310998047396586</v>
+        <v>1.3310998047396586E-2</v>
       </c>
       <c r="B105">
         <v>0.69133409629168507</v>
@@ -4303,7 +4320,7 @@
         <v>0.9942908893536293</v>
       </c>
       <c r="E105">
-        <v>0.071181585181023313</v>
+        <v>7.1181585181023313E-2</v>
       </c>
       <c r="F105">
         <v>0.84915088656297222</v>
@@ -4315,7 +4332,7 @@
         <v>0.964413831692291</v>
       </c>
       <c r="I105">
-        <v>0.013418512622557947</v>
+        <v>1.3418512622557947E-2</v>
       </c>
       <c r="J105">
         <v>0.70217897364535575</v>
@@ -4327,9 +4344,9 @@
         <v>0.99329074368872095</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>0.059331975262281629</v>
+        <v>5.9331975262281629E-2</v>
       </c>
       <c r="B106">
         <v>0.75612503408382226</v>
@@ -4353,7 +4370,7 @@
         <v>0.94304686452853548</v>
       </c>
       <c r="I106">
-        <v>0.028030985288302092</v>
+        <v>2.8030985288302092E-2</v>
       </c>
       <c r="J106">
         <v>0.56757020092953026</v>
@@ -4365,9 +4382,9 @@
         <v>0.98629023950125783</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0.0038769007298598071</v>
+        <v>3.8769007298598071E-3</v>
       </c>
       <c r="B107">
         <v>0.62173200515347771</v>
@@ -4403,9 +4420,9 @@
         <v>0.89970522597353009</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>0.047238095238095232</v>
+        <v>4.7238095238095232E-2</v>
       </c>
       <c r="B108">
         <v>0.83541032207266219</v>
@@ -4417,7 +4434,7 @@
         <v>0.97740195208518188</v>
       </c>
       <c r="E108">
-        <v>0.084118702553485164</v>
+        <v>8.4118702553485164E-2</v>
       </c>
       <c r="F108">
         <v>0.84269174759950405</v>
@@ -4429,7 +4446,7 @@
         <v>0.95794064872325713</v>
       </c>
       <c r="I108">
-        <v>0.01053968253968254</v>
+        <v>1.053968253968254E-2</v>
       </c>
       <c r="J108">
         <v>0.57422971916737464</v>
@@ -4441,9 +4458,9 @@
         <v>0.9947301587301588</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>0.070070067318502544</v>
+        <v>7.0070067318502544E-2</v>
       </c>
       <c r="B109">
         <v>0.83322686407275204</v>
@@ -4455,7 +4472,7 @@
         <v>0.96599781102623372</v>
       </c>
       <c r="E109">
-        <v>0.078132344492609793</v>
+        <v>7.8132344492609793E-2</v>
       </c>
       <c r="F109">
         <v>0.85722514120180138</v>
@@ -4467,7 +4484,7 @@
         <v>0.96095948336920523</v>
       </c>
       <c r="I109">
-        <v>0.0071634143592647463</v>
+        <v>7.1634143592647463E-3</v>
       </c>
       <c r="J109">
         <v>0.65980353977817752</v>
@@ -4479,9 +4496,9 @@
         <v>0.99642195790829768</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.014099245071238482</v>
+        <v>1.4099245071238482E-2</v>
       </c>
       <c r="B110">
         <v>0.82041396318603799</v>
@@ -4493,7 +4510,7 @@
         <v>0.99295037746438086</v>
       </c>
       <c r="E110">
-        <v>0.038955772398935495</v>
+        <v>3.8955772398935495E-2</v>
       </c>
       <c r="F110">
         <v>0.92410582008028919</v>
@@ -4505,7 +4522,7 @@
         <v>0.98052211380053234</v>
       </c>
       <c r="I110">
-        <v>0.00032948929159802305</v>
+        <v>3.2948929159802305E-4</v>
       </c>
       <c r="J110">
         <v>0.61973971151474205</v>
@@ -4517,9 +4534,9 @@
         <v>0.99983525535420104</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>0.020122997113333055</v>
+        <v>2.0122997113333055E-2</v>
       </c>
       <c r="B111">
         <v>0.83983065877285801</v>
@@ -4531,7 +4548,7 @@
         <v>0.9899385014433334</v>
       </c>
       <c r="E111">
-        <v>0.035229507136799107</v>
+        <v>3.5229507136799107E-2</v>
       </c>
       <c r="F111">
         <v>0.89455520816060186</v>
@@ -4543,7 +4560,7 @@
         <v>0.98238524643160041</v>
       </c>
       <c r="I111">
-        <v>0.00074924030076103042</v>
+        <v>7.4924030076103042E-4</v>
       </c>
       <c r="J111">
         <v>0.80822304334345785</v>
@@ -4555,9 +4572,9 @@
         <v>0.99962537984961941</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0.037436168339496388</v>
+        <v>3.7436168339496388E-2</v>
       </c>
       <c r="B112">
         <v>0.7314604796898373</v>
@@ -4569,7 +4586,7 @@
         <v>0.98234084105716424</v>
       </c>
       <c r="E112">
-        <v>0.092932494517280556</v>
+        <v>9.2932494517280556E-2</v>
       </c>
       <c r="F112">
         <v>0.8265245247189239</v>
@@ -4581,7 +4598,7 @@
         <v>0.95355936544526088</v>
       </c>
       <c r="I112">
-        <v>0.01448078246810418</v>
+        <v>1.448078246810418E-2</v>
       </c>
       <c r="J112">
         <v>0.5443345177544413</v>
@@ -4593,9 +4610,9 @@
         <v>0.99276814633391497</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0.0026402112168973516</v>
+        <v>2.6402112168973516E-3</v>
       </c>
       <c r="B113">
         <v>0.63731189445167213</v>
@@ -4607,7 +4624,7 @@
         <v>0.99983042121630616</v>
       </c>
       <c r="E113">
-        <v>0.0271082556169711</v>
+        <v>2.71082556169711E-2</v>
       </c>
       <c r="F113">
         <v>0.8127258112690654</v>
@@ -4619,7 +4636,7 @@
         <v>0.98645514829592174</v>
       </c>
       <c r="I113">
-        <v>0.083070993505567403</v>
+        <v>8.3070993505567403E-2</v>
       </c>
       <c r="J113">
         <v>0.82347960738485348</v>
@@ -4631,9 +4648,9 @@
         <v>0.95848305545603063</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>0.048698163181396588</v>
+        <v>4.8698163181396588E-2</v>
       </c>
       <c r="B114">
         <v>0.82630211245539442</v>
@@ -4645,7 +4662,7 @@
         <v>0.97760869357352531</v>
       </c>
       <c r="E114">
-        <v>0.059541225629404393</v>
+        <v>5.9541225629404393E-2</v>
       </c>
       <c r="F114">
         <v>0.85339542431722093</v>
@@ -4657,7 +4674,7 @@
         <v>0.97022938718529772</v>
       </c>
       <c r="I114">
-        <v>0.0033211261231111495</v>
+        <v>3.3211261231111495E-3</v>
       </c>
       <c r="J114">
         <v>0.58681024869018694</v>
@@ -4669,9 +4686,9 @@
         <v>0.9983394369384444</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>0.055879811928135792</v>
+        <v>5.5879811928135792E-2</v>
       </c>
       <c r="B115">
         <v>0.8045435090913674</v>
@@ -4683,7 +4700,7 @@
         <v>0.9738722999699797</v>
       </c>
       <c r="E115">
-        <v>0.079451523593096429</v>
+        <v>7.9451523593096429E-2</v>
       </c>
       <c r="F115">
         <v>0.83917721329235062</v>
@@ -4695,7 +4712,7 @@
         <v>0.96027423820345192</v>
       </c>
       <c r="I115">
-        <v>0.0088932101951145794</v>
+        <v>8.8932101951145794E-3</v>
       </c>
       <c r="J115">
         <v>0.54859730331197065</v>
@@ -4707,9 +4724,9 @@
         <v>0.99555719663812514</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>0.024011469640368686</v>
+        <v>2.4011469640368686E-2</v>
       </c>
       <c r="B116">
         <v>0.83907023774319722</v>
@@ -4721,7 +4738,7 @@
         <v>0.98916224041132494</v>
       </c>
       <c r="E116">
-        <v>0.051360011370764153</v>
+        <v>5.1360011370764153E-2</v>
       </c>
       <c r="F116">
         <v>0.89216207796521962</v>
@@ -4733,7 +4750,7 @@
         <v>0.9743199943146178</v>
       </c>
       <c r="I116">
-        <v>0.00099494186387835758</v>
+        <v>9.9494186387835758E-4</v>
       </c>
       <c r="J116">
         <v>0.7244964882831495</v>
@@ -4745,9 +4762,9 @@
         <v>0.99950252906806081</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>0.021429286388080886</v>
+        <v>2.1429286388080886E-2</v>
       </c>
       <c r="B117">
         <v>0.79235389919025456</v>
@@ -4759,7 +4776,7 @@
         <v>0.99014525810688259</v>
       </c>
       <c r="E117">
-        <v>0.065094680137948183</v>
+        <v>6.5094680137948183E-2</v>
       </c>
       <c r="F117">
         <v>0.87432095858726622</v>
@@ -4771,7 +4788,7 @@
         <v>0.9674526599310258</v>
       </c>
       <c r="I117">
-        <v>0.0062422464807743057</v>
+        <v>6.2422464807743057E-3</v>
       </c>
       <c r="J117">
         <v>0.73581319545836532</v>
@@ -4783,9 +4800,9 @@
         <v>0.99687887675961284</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>0.062824588074507443</v>
+        <v>6.2824588074507443E-2</v>
       </c>
       <c r="B118">
         <v>0.81412703985409651</v>
@@ -4797,7 +4814,7 @@
         <v>0.97036668370454693</v>
       </c>
       <c r="E118">
-        <v>0.090290382518695964</v>
+        <v>9.0290382518695964E-2</v>
       </c>
       <c r="F118">
         <v>0.82995547864628805</v>
@@ -4809,7 +4826,7 @@
         <v>0.95485480874065209</v>
       </c>
       <c r="I118">
-        <v>0.0099906328219775496</v>
+        <v>9.9906328219775496E-3</v>
       </c>
       <c r="J118">
         <v>0.5296594809664652</v>
@@ -4821,9 +4838,9 @@
         <v>0.99503744311870723</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>0.052092699984796161</v>
+        <v>5.2092699984796161E-2</v>
       </c>
       <c r="B119">
         <v>0.77894720035245413</v>
@@ -4847,7 +4864,7 @@
         <v>0.94995402648364136</v>
       </c>
       <c r="I119">
-        <v>0.020390521491713907</v>
+        <v>2.0390521491713907E-2</v>
       </c>
       <c r="J119">
         <v>0.56904443421849116</v>
@@ -4859,9 +4876,9 @@
         <v>0.98996691354806943</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>0.073975441762048136</v>
+        <v>7.3975441762048136E-2</v>
       </c>
       <c r="B120">
         <v>0.77168463188686853</v>
@@ -4885,7 +4902,7 @@
         <v>0.93783084598745636</v>
       </c>
       <c r="I120">
-        <v>0.053975224368380814</v>
+        <v>5.3975224368380814E-2</v>
       </c>
       <c r="J120">
         <v>0.59204590766420961</v>
@@ -4897,9 +4914,9 @@
         <v>0.97349065388391898</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>0.086366047745358082</v>
+        <v>8.6366047745358082E-2</v>
       </c>
       <c r="B121">
         <v>0.89951732764501202</v>
@@ -4911,7 +4928,7 @@
         <v>0.96831799032610388</v>
       </c>
       <c r="E121">
-        <v>0.094342331096894994</v>
+        <v>9.4342331096894994E-2</v>
       </c>
       <c r="F121">
         <v>0.77341969170943048</v>
@@ -4923,7 +4940,7 @@
         <v>0.95300358870338575</v>
       </c>
       <c r="I121">
-        <v>0.012850678733031674</v>
+        <v>1.2850678733031674E-2</v>
       </c>
       <c r="J121">
         <v>0.48785578174437016</v>
@@ -4935,9 +4952,9 @@
         <v>0.99390752587507158</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>0.087439472516223971</v>
+        <v>8.7439472516223971E-2</v>
       </c>
       <c r="B122">
         <v>0.72165744429273382</v>
@@ -4961,7 +4978,7 @@
         <v>0.92053322830573703</v>
       </c>
       <c r="I122">
-        <v>0.095224576457557775</v>
+        <v>9.5224576457557775E-2</v>
       </c>
       <c r="J122">
         <v>0.60434540122455471</v>
@@ -4973,9 +4990,9 @@
         <v>0.95687670853109308</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>0.03521282601332279</v>
+        <v>3.521282601332279E-2</v>
       </c>
       <c r="B123">
         <v>0.68354452501723684</v>
@@ -5011,9 +5028,9 @@
         <v>0.94956870272101168</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>0.089633890393139987</v>
+        <v>8.9633890393139987E-2</v>
       </c>
       <c r="B124">
         <v>0.76993440009214009</v>
@@ -5049,9 +5066,9 @@
         <v>0.94070357437740149</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>0.044967249516502585</v>
+        <v>4.4967249516502585E-2</v>
       </c>
       <c r="B125">
         <v>0.90395112841397907</v>
@@ -5075,7 +5092,7 @@
         <v>0.93107210412239594</v>
       </c>
       <c r="I125">
-        <v>0.033514528798936703</v>
+        <v>3.3514528798936703E-2</v>
       </c>
       <c r="J125">
         <v>0.48516324172841657</v>
@@ -5087,9 +5104,9 @@
         <v>0.98460568099516899</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>0.027205397802716604</v>
+        <v>2.7205397802716604E-2</v>
       </c>
       <c r="B126">
         <v>0.93333083273614725</v>
@@ -5101,7 +5118,7 @@
         <v>0.98872097254871094</v>
       </c>
       <c r="E126">
-        <v>0.077652427929301368</v>
+        <v>7.7652427929301368E-2</v>
       </c>
       <c r="F126">
         <v>0.74165275803347697</v>
@@ -5113,7 +5130,7 @@
         <v>0.96125247120614543</v>
       </c>
       <c r="I126">
-        <v>0.0098454819958493575</v>
+        <v>9.8454819958493575E-3</v>
       </c>
       <c r="J126">
         <v>0.34235638454625006</v>
@@ -5125,9 +5142,9 @@
         <v>0.99518217256313668</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>0.053030711801553006</v>
+        <v>5.3030711801553006E-2</v>
       </c>
       <c r="B127">
         <v>0.89586896005259409</v>
@@ -5139,7 +5156,7 @@
         <v>0.97570611145720409</v>
       </c>
       <c r="E127">
-        <v>0.073264888675237783</v>
+        <v>7.3264888675237783E-2</v>
       </c>
       <c r="F127">
         <v>0.79296815167813439</v>
@@ -5151,7 +5168,7 @@
         <v>0.96339371702237919</v>
       </c>
       <c r="I127">
-        <v>0.010413856364323099</v>
+        <v>1.0413856364323099E-2</v>
       </c>
       <c r="J127">
         <v>0.44076818273900059</v>
@@ -5163,9 +5180,9 @@
         <v>0.99482577351783641</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>0.068664780853701174</v>
+        <v>6.8664780853701174E-2</v>
       </c>
       <c r="B128">
         <v>0.86139174695106047</v>
@@ -5189,7 +5206,7 @@
         <v>0.91856784159171079</v>
       </c>
       <c r="I128">
-        <v>0.045831611734418201</v>
+        <v>4.5831611734418201E-2</v>
       </c>
       <c r="J128">
         <v>0.50565033092462752</v>
@@ -5201,9 +5218,9 @@
         <v>0.97927830573477848</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>0.095355638279072147</v>
+        <v>9.5355638279072147E-2</v>
       </c>
       <c r="B129">
         <v>0.86812424660725462</v>
@@ -5239,9 +5256,9 @@
         <v>0.94942052366646323</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>0.088382042034572811</v>
+        <v>8.8382042034572811E-2</v>
       </c>
       <c r="B130">
         <v>0.89323128226745563</v>
@@ -5265,7 +5282,7 @@
         <v>0.91117895784106451</v>
       </c>
       <c r="I130">
-        <v>0.070757368486506655</v>
+        <v>7.0757368486506655E-2</v>
       </c>
       <c r="J130">
         <v>0.61403086120404315</v>
@@ -5277,9 +5294,9 @@
         <v>0.96768726941093564</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0.079347456667044305</v>
+        <v>7.9347456667044305E-2</v>
       </c>
       <c r="B131">
         <v>0.83966560235390431</v>
@@ -5303,7 +5320,7 @@
         <v>0.94266266379668473</v>
       </c>
       <c r="I131">
-        <v>0.033787243684150897</v>
+        <v>3.3787243684150897E-2</v>
       </c>
       <c r="J131">
         <v>0.50132135157289026</v>
@@ -5315,9 +5332,9 @@
         <v>0.98421471998791576</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>0.040883128782225109</v>
+        <v>4.0883128782225109E-2</v>
       </c>
       <c r="B132">
         <v>0.93093431556614081</v>
@@ -5329,7 +5346,7 @@
         <v>0.9865410050466612</v>
       </c>
       <c r="E132">
-        <v>0.057478738260786033</v>
+        <v>5.7478738260786033E-2</v>
       </c>
       <c r="F132">
         <v>0.81890907921405831</v>
@@ -5341,7 +5358,7 @@
         <v>0.97126063086960679</v>
       </c>
       <c r="I132">
-        <v>0.0017807399306915329</v>
+        <v>1.7807399306915329E-3</v>
       </c>
       <c r="J132">
         <v>0.37313560411062607</v>
@@ -5353,9 +5370,9 @@
         <v>0.99910963003465414</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.052974154648989816</v>
+        <v>5.2974154648989816E-2</v>
       </c>
       <c r="B133">
         <v>0.91830550049670123</v>
@@ -5379,7 +5396,7 @@
         <v>0.94055980630678282</v>
       </c>
       <c r="I133">
-        <v>0.024244561193187828</v>
+        <v>2.4244561193187828E-2</v>
       </c>
       <c r="J133">
         <v>0.45001703137328641</v>
@@ -5391,9 +5408,9 @@
         <v>0.98831964082131574</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.013725612416630305</v>
+        <v>1.3725612416630305E-2</v>
       </c>
       <c r="B134">
         <v>0.89384125968168926</v>
@@ -5405,7 +5422,7 @@
         <v>0.99313719379168486</v>
       </c>
       <c r="E134">
-        <v>0.051187433771738448</v>
+        <v>5.1187433771738448E-2</v>
       </c>
       <c r="F134">
         <v>0.77522078346745793</v>
@@ -5417,7 +5434,7 @@
         <v>0.97442290510918583</v>
       </c>
       <c r="I134">
-        <v>0.00211930436950695</v>
+        <v>2.11930436950695E-3</v>
       </c>
       <c r="J134">
         <v>0.18166535510099413</v>
@@ -5429,9 +5446,9 @@
         <v>0.99894034781524643</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>0.060140858422229528</v>
+        <v>6.0140858422229528E-2</v>
       </c>
       <c r="B135">
         <v>0.84528052330713677</v>
@@ -5455,7 +5472,7 @@
         <v>0.92181985810066058</v>
       </c>
       <c r="I135">
-        <v>0.063324950231139418</v>
+        <v>6.3324950231139418E-2</v>
       </c>
       <c r="J135">
         <v>0.4854960318157957</v>
@@ -5467,9 +5484,9 @@
         <v>0.97199672111036139</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>0.04343604216337274</v>
+        <v>4.343604216337274E-2</v>
       </c>
       <c r="B136">
         <v>0.74158283306444284</v>
@@ -5481,7 +5498,7 @@
         <v>0.97828197891831359</v>
       </c>
       <c r="E136">
-        <v>0.067786175008573993</v>
+        <v>6.7786175008573993E-2</v>
       </c>
       <c r="F136">
         <v>0.78368230990470844</v>
@@ -5493,7 +5510,7 @@
         <v>0.96614547823583774</v>
       </c>
       <c r="I136">
-        <v>0.012768014677018814</v>
+        <v>1.2768014677018814E-2</v>
       </c>
       <c r="J136">
         <v>0.4883747333675581</v>
@@ -5505,9 +5522,9 @@
         <v>0.99371516170752572</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0.042197971040339122</v>
+        <v>4.2197971040339122E-2</v>
       </c>
       <c r="B137">
         <v>0.90631822141673835</v>
@@ -5519,7 +5536,7 @@
         <v>0.97890101447983058</v>
       </c>
       <c r="E137">
-        <v>0.079738526226258502</v>
+        <v>7.9738526226258502E-2</v>
       </c>
       <c r="F137">
         <v>0.80859902945603945</v>
@@ -5531,7 +5548,7 @@
         <v>0.96014902816170411</v>
       </c>
       <c r="I137">
-        <v>0.011612673109768226</v>
+        <v>1.1612673109768226E-2</v>
       </c>
       <c r="J137">
         <v>0.48497082080044068</v>
@@ -5543,9 +5560,9 @@
         <v>0.99420280908253256</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>0.056930511581403102</v>
+        <v>5.6930511581403102E-2</v>
       </c>
       <c r="B138">
         <v>0.87315760099649209</v>
@@ -5557,7 +5574,7 @@
         <v>0.97200716547242139</v>
       </c>
       <c r="E138">
-        <v>0.093657723712714566</v>
+        <v>9.3657723712714566E-2</v>
       </c>
       <c r="F138">
         <v>0.81617464998215672</v>
@@ -5569,7 +5586,7 @@
         <v>0.95318002555129688</v>
       </c>
       <c r="I138">
-        <v>0.0088585235794034316</v>
+        <v>8.8585235794034316E-3</v>
       </c>
       <c r="J138">
         <v>0.49424111949491595</v>
@@ -5581,9 +5598,9 @@
         <v>0.99557073821029818</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>0.051782604146793282</v>
+        <v>5.1782604146793282E-2</v>
       </c>
       <c r="B139">
         <v>0.89269440959710578</v>
@@ -5607,7 +5624,7 @@
         <v>0.94589310734602372</v>
       </c>
       <c r="I139">
-        <v>0.026389803491971665</v>
+        <v>2.6389803491971665E-2</v>
       </c>
       <c r="J139">
         <v>0.46580201107065589</v>
@@ -5619,9 +5636,9 @@
         <v>0.98743694367344259</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>0.047553239017125833</v>
+        <v>4.7553239017125833E-2</v>
       </c>
       <c r="B140">
         <v>0.89262493278295485</v>
@@ -5645,7 +5662,7 @@
         <v>0.93011417225117909</v>
       </c>
       <c r="I140">
-        <v>0.041072226358897984</v>
+        <v>4.1072226358897984E-2</v>
       </c>
       <c r="J140">
         <v>0.49986223426415888</v>
@@ -5657,9 +5674,9 @@
         <v>0.98064432861752304</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>0.021351371561031444</v>
+        <v>2.1351371561031444E-2</v>
       </c>
       <c r="B141">
         <v>0.54363889694780221</v>
@@ -5695,9 +5712,9 @@
         <v>0.94835771216679221</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>0.0056802157951140854</v>
+        <v>5.6802157951140854E-3</v>
       </c>
       <c r="B142">
         <v>0.50872186627477056</v>
@@ -5733,9 +5750,9 @@
         <v>0.8434691895849441</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>0.0044736684934857359</v>
+        <v>4.4736684934857359E-3</v>
       </c>
       <c r="B143">
         <v>0.95525363375909356</v>
@@ -5771,9 +5788,9 @@
         <v>0.86002792843268039</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>0.00078960954820161359</v>
+        <v>7.8960954820161359E-4</v>
       </c>
       <c r="B144">
         <v>0.39960493527016355</v>
@@ -5809,9 +5826,9 @@
         <v>0.93570812341754694</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>0.0012191573959906346</v>
+        <v>1.2191573959906346E-3</v>
       </c>
       <c r="B145">
         <v>0.57644551608618433</v>
@@ -5847,9 +5864,9 @@
         <v>0.92661272818793505</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>0.0025451890740378741</v>
+        <v>2.5451890740378741E-3</v>
       </c>
       <c r="B146">
         <v>0.52065713840506189</v>
@@ -5885,9 +5902,9 @@
         <v>0.88281625038064804</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>0.0071168360672235085</v>
+        <v>7.1168360672235085E-3</v>
       </c>
       <c r="B147">
         <v>0.47583518400833241</v>
@@ -5923,9 +5940,9 @@
         <v>0.84989500519942307</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>0.0026963662648967876</v>
+        <v>2.6963662648967876E-3</v>
       </c>
       <c r="B148">
         <v>0.54818718039725423</v>
@@ -5961,9 +5978,9 @@
         <v>0.92149730292714027</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>0.00087826377725941417</v>
+        <v>8.7826377725941417E-4</v>
       </c>
       <c r="B149">
         <v>0.43770485452567148</v>
@@ -5999,9 +6016,9 @@
         <v>0.90954151676422912</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>0.00068637544736971118</v>
+        <v>6.8637544736971118E-4</v>
       </c>
       <c r="B150">
         <v>0.51577393596286381</v>
@@ -6037,9 +6054,9 @@
         <v>0.8367944380961001</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>0.0022432595935318262</v>
+        <v>2.2432595935318262E-3</v>
       </c>
       <c r="B151">
         <v>0.42342569970448685</v>
@@ -6075,9 +6092,9 @@
         <v>0.88357450008992655</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>0.001615348549095302</v>
+        <v>1.615348549095302E-3</v>
       </c>
       <c r="B152">
         <v>0.55989348335155109</v>
@@ -6113,9 +6130,9 @@
         <v>0.88166659251577995</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>0.00016099199690895367</v>
+        <v>1.6099199690895367E-4</v>
       </c>
       <c r="B153">
         <v>0.63408679864872353</v>
@@ -6151,9 +6168,9 @@
         <v>0.88170785080454261</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.013111171810980607</v>
+        <v>1.3111171810980607E-2</v>
       </c>
       <c r="B154">
         <v>0.53400414792013617</v>
@@ -6189,9 +6206,9 @@
         <v>0.83045594940432421</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.0053060807358201317</v>
+        <v>5.3060807358201317E-3</v>
       </c>
       <c r="B155">
         <v>0.50649213406669435</v>
@@ -6227,9 +6244,9 @@
         <v>0.83997615397717595</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.0014188645930223393</v>
+        <v>1.4188645930223393E-3</v>
       </c>
       <c r="B156">
         <v>0.44373410506007194</v>
@@ -6241,7 +6258,7 @@
         <v>0.99929056770348879</v>
       </c>
       <c r="E156">
-        <v>0.074075241863862565</v>
+        <v>7.4075241863862565E-2</v>
       </c>
       <c r="F156">
         <v>0.77687979862846135</v>
@@ -6253,7 +6270,7 @@
         <v>0.96296938580679969</v>
       </c>
       <c r="I156">
-        <v>0.062277645525584228</v>
+        <v>6.2277645525584228E-2</v>
       </c>
       <c r="J156">
         <v>0.53967371077142379</v>
@@ -6265,9 +6282,9 @@
         <v>0.96886117723720788</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.0018323140274359787</v>
+        <v>1.8323140274359787E-3</v>
       </c>
       <c r="B157">
         <v>0.47421101870458676</v>
@@ -6279,7 +6296,7 @@
         <v>0.99908384298628194</v>
       </c>
       <c r="E157">
-        <v>0.054964547647474479</v>
+        <v>5.4964547647474479E-2</v>
       </c>
       <c r="F157">
         <v>0.79888116177336455</v>
@@ -6303,9 +6320,9 @@
         <v>0.93953851027021762</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.0062905605849404387</v>
+        <v>6.2905605849404387E-3</v>
       </c>
       <c r="B158">
         <v>0.48567610711772313</v>
@@ -6317,7 +6334,7 @@
         <v>0.99686152767353087</v>
       </c>
       <c r="E158">
-        <v>0.083186536566436403</v>
+        <v>8.3186536566436403E-2</v>
       </c>
       <c r="F158">
         <v>0.79601357000846396</v>
@@ -6341,9 +6358,9 @@
         <v>0.91966174620923957</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>0.0070223158295805123</v>
+        <v>7.0223158295805123E-3</v>
       </c>
       <c r="B159">
         <v>0.45936053056001308</v>
@@ -6379,9 +6396,9 @@
         <v>0.9087883903356283</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>0.0034148005001705126</v>
+        <v>3.4148005001705126E-3</v>
       </c>
       <c r="B160">
         <v>0.46636447852472801</v>
@@ -6417,9 +6434,9 @@
         <v>0.91919214883861933</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.01661275508166607</v>
+        <v>1.661275508166607E-2</v>
       </c>
       <c r="B161">
         <v>0.95693788181174377</v>
@@ -6431,7 +6448,7 @@
         <v>0.99169362245916703</v>
       </c>
       <c r="E161">
-        <v>0.073967582054319816</v>
+        <v>7.3967582054319816E-2</v>
       </c>
       <c r="F161">
         <v>0.85799453690088878</v>
@@ -6443,7 +6460,7 @@
         <v>0.9630162089728399</v>
       </c>
       <c r="I161">
-        <v>0.075609334025531466</v>
+        <v>7.5609334025531466E-2</v>
       </c>
       <c r="J161">
         <v>0.8400309227378745</v>
@@ -6455,9 +6472,9 @@
         <v>0.96219533298723436</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.043711235070969218</v>
+        <v>4.3711235070969218E-2</v>
       </c>
       <c r="B162">
         <v>0.90346145508029574</v>
@@ -6469,7 +6486,7 @@
         <v>0.97814438246451541</v>
       </c>
       <c r="E162">
-        <v>0.090719274878787462</v>
+        <v>9.0719274878787462E-2</v>
       </c>
       <c r="F162">
         <v>0.756450804207768</v>
@@ -6493,9 +6510,9 @@
         <v>0.94960650803907509</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>0.073327824105376513</v>
+        <v>7.3327824105376513E-2</v>
       </c>
       <c r="B163">
         <v>0.84516341194334832</v>
@@ -6507,7 +6524,7 @@
         <v>0.96338700656933707</v>
       </c>
       <c r="E163">
-        <v>0.082728570355345199</v>
+        <v>8.2728570355345199E-2</v>
       </c>
       <c r="F163">
         <v>0.8102535543367767</v>
@@ -6519,7 +6536,7 @@
         <v>0.95863571482232734</v>
       </c>
       <c r="I163">
-        <v>0.063005534269902089</v>
+        <v>6.3005534269902089E-2</v>
       </c>
       <c r="J163">
         <v>0.70574683749354394</v>
@@ -6531,9 +6548,9 @@
         <v>0.96849723286504907</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.015670907119901017</v>
+        <v>1.5670907119901017E-2</v>
       </c>
       <c r="B164">
         <v>0.87147469748246609</v>
@@ -6545,7 +6562,7 @@
         <v>0.99216454644004959</v>
       </c>
       <c r="E164">
-        <v>0.089547493459282868</v>
+        <v>8.9547493459282868E-2</v>
       </c>
       <c r="F164">
         <v>0.7578281555111146</v>
@@ -6569,9 +6586,9 @@
         <v>0.94830630858394915</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.096260534451361554</v>
+        <v>9.6260534451361554E-2</v>
       </c>
       <c r="B165">
         <v>0.80594693022978547</v>
@@ -6607,9 +6624,9 @@
         <v>0.86909125701316459</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.03875657986958686</v>
+        <v>3.875657986958686E-2</v>
       </c>
       <c r="B166">
         <v>0.92040997573983319</v>
@@ -6645,9 +6662,9 @@
         <v>0.86913330207542816</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.099582892147826799</v>
+        <v>9.9582892147826799E-2</v>
       </c>
       <c r="B167">
         <v>0.80007517001987682</v>
@@ -6683,9 +6700,9 @@
         <v>0.9090822055417187</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.034889222698436764</v>
+        <v>3.4889222698436764E-2</v>
       </c>
       <c r="B168">
         <v>0.89138295371032505</v>
@@ -6721,9 +6738,9 @@
         <v>0.83574656199134245</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.094373314690901822</v>
+        <v>9.4373314690901822E-2</v>
       </c>
       <c r="B169">
         <v>0.79623410370602166</v>
@@ -6759,7 +6776,7 @@
         <v>0.82962781717101108</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0.10637027560104485</v>
       </c>
@@ -6797,7 +6814,7 @@
         <v>0.87526046756815989</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>0.10117117418290821</v>
       </c>
@@ -6835,7 +6852,7 @@
         <v>0.8620069188300391</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0.10954734578760716</v>
       </c>
@@ -6873,9 +6890,9 @@
         <v>0.87914959622675137</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>0.099817258067755099</v>
+        <v>9.9817258067755099E-2</v>
       </c>
       <c r="B173">
         <v>0.78674448698465649</v>
@@ -6911,9 +6928,9 @@
         <v>0.89502379661425369</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.056755587599134821</v>
+        <v>5.6755587599134821E-2</v>
       </c>
       <c r="B174">
         <v>0.88379632052906476</v>
@@ -6949,9 +6966,9 @@
         <v>0.85889792975589674</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.052100072666874289</v>
+        <v>5.2100072666874289E-2</v>
       </c>
       <c r="B175">
         <v>0.89579863815327754</v>
@@ -6987,9 +7004,9 @@
         <v>0.83299422125333056</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.095819676844344781</v>
+        <v>9.5819676844344781E-2</v>
       </c>
       <c r="B176">
         <v>0.79489272475863693</v>
@@ -7025,9 +7042,9 @@
         <v>0.83321207010011578</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.093868868564098207</v>
+        <v>9.3868868564098207E-2</v>
       </c>
       <c r="B177">
         <v>0.79497103229468247</v>
@@ -7063,9 +7080,9 @@
         <v>0.81689650459608187</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.086768400290667486</v>
+        <v>8.6768400290667486E-2</v>
       </c>
       <c r="B178">
         <v>0.80776728017419475</v>
@@ -7101,9 +7118,9 @@
         <v>0.85242395930655035</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.088555714545001746</v>
+        <v>8.8555714545001746E-2</v>
       </c>
       <c r="B179">
         <v>0.82312063920424994</v>
@@ -7139,9 +7156,9 @@
         <v>0.91875850347314558</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.022055553908635461</v>
+        <v>2.2055553908635461E-2</v>
       </c>
       <c r="B180">
         <v>0.94372475111356791</v>
@@ -7177,9 +7194,9 @@
         <v>0.88778989910967498</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.01661275508166607</v>
+        <v>1.661275508166607E-2</v>
       </c>
       <c r="B181">
         <v>0.95693788181174377</v>
@@ -7191,7 +7208,7 @@
         <v>0.99169362245916703</v>
       </c>
       <c r="E181">
-        <v>0.073967582054319816</v>
+        <v>7.3967582054319816E-2</v>
       </c>
       <c r="F181">
         <v>0.85799453690088878</v>
@@ -7203,7 +7220,7 @@
         <v>0.9630162089728399</v>
       </c>
       <c r="I181">
-        <v>0.075609334025531466</v>
+        <v>7.5609334025531466E-2</v>
       </c>
       <c r="J181">
         <v>0.8400309227378745</v>
@@ -7215,9 +7232,9 @@
         <v>0.96219533298723436</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>0.043711235070969218</v>
+        <v>4.3711235070969218E-2</v>
       </c>
       <c r="B182">
         <v>0.90346145508029574</v>
@@ -7229,7 +7246,7 @@
         <v>0.97814438246451541</v>
       </c>
       <c r="E182">
-        <v>0.090719274878787462</v>
+        <v>9.0719274878787462E-2</v>
       </c>
       <c r="F182">
         <v>0.756450804207768</v>
@@ -7253,9 +7270,9 @@
         <v>0.94960650803907509</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>0.073327824105376513</v>
+        <v>7.3327824105376513E-2</v>
       </c>
       <c r="B183">
         <v>0.84516341194334832</v>
@@ -7267,7 +7284,7 @@
         <v>0.96338700656933707</v>
       </c>
       <c r="E183">
-        <v>0.082728570355345199</v>
+        <v>8.2728570355345199E-2</v>
       </c>
       <c r="F183">
         <v>0.8102535543367767</v>
@@ -7279,7 +7296,7 @@
         <v>0.95863571482232734</v>
       </c>
       <c r="I183">
-        <v>0.063005534269902089</v>
+        <v>6.3005534269902089E-2</v>
       </c>
       <c r="J183">
         <v>0.70574683749354394</v>
@@ -7291,9 +7308,9 @@
         <v>0.96849723286504907</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>0.015670907119901017</v>
+        <v>1.5670907119901017E-2</v>
       </c>
       <c r="B184">
         <v>0.87147469748246609</v>
@@ -7305,7 +7322,7 @@
         <v>0.99216454644004959</v>
       </c>
       <c r="E184">
-        <v>0.089547493459282868</v>
+        <v>8.9547493459282868E-2</v>
       </c>
       <c r="F184">
         <v>0.7578281555111146</v>
@@ -7329,9 +7346,9 @@
         <v>0.94830630858394915</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>0.096260534451361554</v>
+        <v>9.6260534451361554E-2</v>
       </c>
       <c r="B185">
         <v>0.80594693022978547</v>
@@ -7367,9 +7384,9 @@
         <v>0.86909125701316459</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>0.03875657986958686</v>
+        <v>3.875657986958686E-2</v>
       </c>
       <c r="B186">
         <v>0.92040997573983319</v>
@@ -7405,9 +7422,9 @@
         <v>0.86913330207542816</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>0.099582892147826799</v>
+        <v>9.9582892147826799E-2</v>
       </c>
       <c r="B187">
         <v>0.80007517001987682</v>
@@ -7443,9 +7460,9 @@
         <v>0.9090822055417187</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.034889222698436764</v>
+        <v>3.4889222698436764E-2</v>
       </c>
       <c r="B188">
         <v>0.89138295371032505</v>
@@ -7481,9 +7498,9 @@
         <v>0.83574656199134245</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>0.094373314690901822</v>
+        <v>9.4373314690901822E-2</v>
       </c>
       <c r="B189">
         <v>0.79623410370602166</v>
@@ -7519,7 +7536,7 @@
         <v>0.82962781717101108</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.10637027560104485</v>
       </c>
@@ -7557,7 +7574,7 @@
         <v>0.87526046756815989</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0.10117117418290821</v>
       </c>
@@ -7595,7 +7612,7 @@
         <v>0.8620069188300391</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.10954734578760716</v>
       </c>
@@ -7633,9 +7650,9 @@
         <v>0.87914959622675137</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>0.099817258067755099</v>
+        <v>9.9817258067755099E-2</v>
       </c>
       <c r="B193">
         <v>0.78674448698465649</v>
@@ -7671,9 +7688,9 @@
         <v>0.89502379661425369</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>0.056755587599134821</v>
+        <v>5.6755587599134821E-2</v>
       </c>
       <c r="B194">
         <v>0.88379632052906476</v>
@@ -7709,9 +7726,9 @@
         <v>0.85889792975589674</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>0.052100072666874289</v>
+        <v>5.2100072666874289E-2</v>
       </c>
       <c r="B195">
         <v>0.89579863815327754</v>
@@ -7747,9 +7764,9 @@
         <v>0.83299422125333056</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>0.095819676844344781</v>
+        <v>9.5819676844344781E-2</v>
       </c>
       <c r="B196">
         <v>0.79489272475863693</v>
@@ -7785,9 +7802,9 @@
         <v>0.83321207010011578</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>0.093868868564098207</v>
+        <v>9.3868868564098207E-2</v>
       </c>
       <c r="B197">
         <v>0.79497103229468247</v>
@@ -7823,9 +7840,9 @@
         <v>0.81689650459608187</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>0.086768400290667486</v>
+        <v>8.6768400290667486E-2</v>
       </c>
       <c r="B198">
         <v>0.80776728017419475</v>
@@ -7861,9 +7878,9 @@
         <v>0.85242395930655035</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>0.088555714545001746</v>
+        <v>8.8555714545001746E-2</v>
       </c>
       <c r="B199">
         <v>0.82312063920424994</v>
@@ -7899,9 +7916,9 @@
         <v>0.91875850347314558</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>0.022055553908635461</v>
+        <v>2.2055553908635461E-2</v>
       </c>
       <c r="B200">
         <v>0.94372475111356791</v>
@@ -7937,9 +7954,9 @@
         <v>0.88778989910967498</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>0.0098203452762063471</v>
+        <v>9.8203452762063471E-3</v>
       </c>
       <c r="B201">
         <v>0.66240914997249112</v>
@@ -7951,7 +7968,7 @@
         <v>0.99508982736189688</v>
       </c>
       <c r="E201">
-        <v>0.079083161572307728</v>
+        <v>7.9083161572307728E-2</v>
       </c>
       <c r="F201">
         <v>0.77022048705877444</v>
@@ -7963,7 +7980,7 @@
         <v>0.96052468729748042</v>
       </c>
       <c r="I201">
-        <v>0.050043122980894333</v>
+        <v>5.0043122980894333E-2</v>
       </c>
       <c r="J201">
         <v>0.68136144969845747</v>
@@ -7975,9 +7992,9 @@
         <v>0.97537141799081017</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>0.029207695224998838</v>
+        <v>2.9207695224998838E-2</v>
       </c>
       <c r="B202">
         <v>0.7994240733229997</v>
@@ -7989,7 +8006,7 @@
         <v>0.98539615238750067</v>
       </c>
       <c r="E202">
-        <v>0.037482981504066711</v>
+        <v>3.7482981504066711E-2</v>
       </c>
       <c r="F202">
         <v>0.789492206234227</v>
@@ -8001,7 +8018,7 @@
         <v>0.98125850924796676</v>
       </c>
       <c r="I202">
-        <v>0.035000122778728174</v>
+        <v>3.5000122778728174E-2</v>
       </c>
       <c r="J202">
         <v>0.76173096579030941</v>
@@ -8013,9 +8030,9 @@
         <v>0.98256905848723874</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>0.098097320172667174</v>
+        <v>9.8097320172667174E-2</v>
       </c>
       <c r="B203">
         <v>0.802440178621876</v>
@@ -8039,7 +8056,7 @@
         <v>0.94932643181156084</v>
       </c>
       <c r="I203">
-        <v>0.041324394926509925</v>
+        <v>4.1324394926509925E-2</v>
       </c>
       <c r="J203">
         <v>0.65703588836706439</v>
@@ -8051,9 +8068,9 @@
         <v>0.98006935416056373</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>0.087728297593038629</v>
+        <v>8.7728297593038629E-2</v>
       </c>
       <c r="B204">
         <v>0.82397113363403052</v>
@@ -8065,7 +8082,7 @@
         <v>0.95613585120348077</v>
       </c>
       <c r="E204">
-        <v>0.073831668924480204</v>
+        <v>7.3831668924480204E-2</v>
       </c>
       <c r="F204">
         <v>0.82395513016021826</v>
@@ -8077,7 +8094,7 @@
         <v>0.9631276896543951</v>
       </c>
       <c r="I204">
-        <v>0.023454058351850514</v>
+        <v>2.3454058351850514E-2</v>
       </c>
       <c r="J204">
         <v>0.67036434056217198</v>
@@ -8089,7 +8106,7 @@
         <v>0.98846882934893365</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0.10053264155793937</v>
       </c>
@@ -8103,7 +8120,7 @@
         <v>0.94973367922103025</v>
       </c>
       <c r="E205">
-        <v>0.08608949313004996</v>
+        <v>8.608949313004996E-2</v>
       </c>
       <c r="F205">
         <v>0.78651308379693752</v>
@@ -8115,7 +8132,7 @@
         <v>0.95711105870388424</v>
       </c>
       <c r="I205">
-        <v>0.038277105336401281</v>
+        <v>3.8277105336401281E-2</v>
       </c>
       <c r="J205">
         <v>0.6574749960813695</v>
@@ -8127,9 +8144,9 @@
         <v>0.98148183558436541</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>0.044943848485229573</v>
+        <v>4.4943848485229573E-2</v>
       </c>
       <c r="B206">
         <v>0.72475750204389544</v>
@@ -8141,7 +8158,7 @@
         <v>0.97752807575738521</v>
       </c>
       <c r="E206">
-        <v>0.09629387426588025</v>
+        <v>9.629387426588025E-2</v>
       </c>
       <c r="F206">
         <v>0.77690121320828498</v>
@@ -8153,7 +8170,7 @@
         <v>0.95205092412104741</v>
       </c>
       <c r="I206">
-        <v>0.047677855049863549</v>
+        <v>4.7677855049863549E-2</v>
       </c>
       <c r="J206">
         <v>0.64799793394707028</v>
@@ -8165,9 +8182,9 @@
         <v>0.97686532439604112</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>0.0098004541673882457</v>
+        <v>9.8004541673882457E-3</v>
       </c>
       <c r="B207">
         <v>0.6591302301620523</v>
@@ -8191,7 +8208,7 @@
         <v>0.94783985924550962</v>
       </c>
       <c r="I207">
-        <v>0.061100392457211439</v>
+        <v>6.1100392457211439E-2</v>
       </c>
       <c r="J207">
         <v>0.71351760526479335</v>
@@ -8203,9 +8220,9 @@
         <v>0.97005470985240771</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>0.09407805919925849</v>
+        <v>9.407805919925849E-2</v>
       </c>
       <c r="B208">
         <v>0.78885950740298649</v>
@@ -8217,7 +8234,7 @@
         <v>0.95296097040037075</v>
       </c>
       <c r="E208">
-        <v>0.087341406570083352</v>
+        <v>8.7341406570083352E-2</v>
       </c>
       <c r="F208">
         <v>0.80029795269510917</v>
@@ -8229,7 +8246,7 @@
         <v>0.95640093941490312</v>
       </c>
       <c r="I208">
-        <v>0.03653329930305086</v>
+        <v>3.653329930305086E-2</v>
       </c>
       <c r="J208">
         <v>0.67336176676862336</v>
@@ -8241,9 +8258,9 @@
         <v>0.98214175105206558</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>0.00026804725413689864</v>
+        <v>2.6804725413689864E-4</v>
       </c>
       <c r="B209">
         <v>0.56629950136443652</v>
@@ -8255,7 +8272,7 @@
         <v>0.99986597637293151</v>
       </c>
       <c r="E209">
-        <v>0.084696447293046997</v>
+        <v>8.4696447293046997E-2</v>
       </c>
       <c r="F209">
         <v>0.76615782868566895</v>
@@ -8279,9 +8296,9 @@
         <v>0.93733602821701734</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>0.0029937171743835015</v>
+        <v>2.9937171743835015E-3</v>
       </c>
       <c r="B210">
         <v>0.61301059305591277</v>
@@ -8293,7 +8310,7 @@
         <v>0.99850314141280816</v>
       </c>
       <c r="E210">
-        <v>0.040181592305581215</v>
+        <v>4.0181592305581215E-2</v>
       </c>
       <c r="F210">
         <v>0.81814168641961071</v>
@@ -8305,7 +8322,7 @@
         <v>0.97990920384720936</v>
       </c>
       <c r="I210">
-        <v>0.016292609142883479</v>
+        <v>1.6292609142883479E-2</v>
       </c>
       <c r="J210">
         <v>0.72555141919840127</v>
@@ -8317,9 +8334,9 @@
         <v>0.99186207532267834</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>0.00039207717226293076</v>
+        <v>3.9207717226293076E-4</v>
       </c>
       <c r="B211">
         <v>0.58566245443139486</v>
@@ -8331,7 +8348,7 @@
         <v>0.99980396141386851</v>
       </c>
       <c r="E211">
-        <v>0.037933466416438549</v>
+        <v>3.7933466416438549E-2</v>
       </c>
       <c r="F211">
         <v>0.81602589379636026</v>
@@ -8343,7 +8360,7 @@
         <v>0.98103326679178082</v>
       </c>
       <c r="I211">
-        <v>0.019233297871068769</v>
+        <v>1.9233297871068769E-2</v>
       </c>
       <c r="J211">
         <v>0.75675923706177772</v>
@@ -8355,9 +8372,9 @@
         <v>0.99040247678018578</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>0.05416050759794809</v>
+        <v>5.416050759794809E-2</v>
       </c>
       <c r="B212">
         <v>0.74924061855667767</v>
@@ -8369,7 +8386,7 @@
         <v>0.97291974620102595</v>
       </c>
       <c r="E212">
-        <v>0.094651661210411936</v>
+        <v>9.4651661210411936E-2</v>
       </c>
       <c r="F212">
         <v>0.76919930460669605</v>
@@ -8381,7 +8398,7 @@
         <v>0.95279911410172313</v>
       </c>
       <c r="I212">
-        <v>0.05591074111355962</v>
+        <v>5.591074111355962E-2</v>
       </c>
       <c r="J212">
         <v>0.67940252949918845</v>
@@ -8393,9 +8410,9 @@
         <v>0.97264038394299301</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>0.00025943657885079839</v>
+        <v>2.5943657885079839E-4</v>
       </c>
       <c r="B213">
         <v>0.56308863397913256</v>
@@ -8431,9 +8448,9 @@
         <v>0.89601329612466607</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>0.010268282319154859</v>
+        <v>1.0268282319154859E-2</v>
       </c>
       <c r="B214">
         <v>0.72797677199727318</v>
@@ -8445,7 +8462,7 @@
         <v>0.99486585884042256</v>
       </c>
       <c r="E214">
-        <v>0.045307623554923883</v>
+        <v>4.5307623554923883E-2</v>
       </c>
       <c r="F214">
         <v>0.80388565743627849</v>
@@ -8457,7 +8474,7 @@
         <v>0.97735009548369445</v>
       </c>
       <c r="I214">
-        <v>0.027751322363697636</v>
+        <v>2.7751322363697636E-2</v>
       </c>
       <c r="J214">
         <v>0.75201824973050191</v>
@@ -8469,9 +8486,9 @@
         <v>0.98613215334046411</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>0.062913270257943327</v>
+        <v>6.2913270257943327E-2</v>
       </c>
       <c r="B215">
         <v>0.78929587724280781</v>
@@ -8483,7 +8500,7 @@
         <v>0.96854336487102832</v>
       </c>
       <c r="E215">
-        <v>0.077460815656876791</v>
+        <v>7.7460815656876791E-2</v>
       </c>
       <c r="F215">
         <v>0.80475619792935094</v>
@@ -8495,7 +8512,7 @@
         <v>0.96131570623325202</v>
       </c>
       <c r="I215">
-        <v>0.030448250295598341</v>
+        <v>3.0448250295598341E-2</v>
       </c>
       <c r="J215">
         <v>0.68187562422718828</v>
@@ -8507,9 +8524,9 @@
         <v>0.98499491664523087</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>0.096129840366851099</v>
+        <v>9.6129840366851099E-2</v>
       </c>
       <c r="B216">
         <v>0.76279230752498328</v>
@@ -8533,7 +8550,7 @@
         <v>0.94266013282490846</v>
       </c>
       <c r="I216">
-        <v>0.054573155768750659</v>
+        <v>5.4573155768750659E-2</v>
       </c>
       <c r="J216">
         <v>0.61165283023131556</v>
@@ -8545,9 +8562,9 @@
         <v>0.97479036724230772</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>4.4504649345086273e-05</v>
+        <v>4.4504649345086273E-5</v>
       </c>
       <c r="B217">
         <v>0.4666444134135192</v>
@@ -8559,7 +8576,7 @@
         <v>0.99997774767532732</v>
       </c>
       <c r="E217">
-        <v>0.098288518078623016</v>
+        <v>9.8288518078623016E-2</v>
       </c>
       <c r="F217">
         <v>0.80959574703688653</v>
@@ -8571,7 +8588,7 @@
         <v>0.95086315840224611</v>
       </c>
       <c r="I217">
-        <v>0.078339309009688107</v>
+        <v>7.8339309009688107E-2</v>
       </c>
       <c r="J217">
         <v>0.79631241074798398</v>
@@ -8583,9 +8600,9 @@
         <v>0.96084888909904964</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>0.0049735384143119836</v>
+        <v>4.9735384143119836E-3</v>
       </c>
       <c r="B218">
         <v>0.55926758880859773</v>
@@ -8597,7 +8614,7 @@
         <v>0.99751323079284393</v>
       </c>
       <c r="E218">
-        <v>0.078744247962620251</v>
+        <v>7.8744247962620251E-2</v>
       </c>
       <c r="F218">
         <v>0.74834136673066787</v>
@@ -8609,7 +8626,7 @@
         <v>0.96077742653085085</v>
       </c>
       <c r="I218">
-        <v>0.062684293949402739</v>
+        <v>6.2684293949402739E-2</v>
       </c>
       <c r="J218">
         <v>0.67855730800567449</v>
@@ -8621,9 +8638,9 @@
         <v>0.96940954112589883</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>0.056209057135841192</v>
+        <v>5.6209057135841192E-2</v>
       </c>
       <c r="B219">
         <v>0.69167246348193179</v>
@@ -8659,9 +8676,9 @@
         <v>0.94511554876089932</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>0.094559260189384431</v>
+        <v>9.4559260189384431E-2</v>
       </c>
       <c r="B220">
         <v>0.80916153855555006</v>
@@ -8685,7 +8702,7 @@
         <v>0.94516838274760062</v>
       </c>
       <c r="I220">
-        <v>0.065962507201630882</v>
+        <v>6.5962507201630882E-2</v>
       </c>
       <c r="J220">
         <v>0.7048797746440788</v>
@@ -8697,9 +8714,9 @@
         <v>0.96808089462721403</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>0.068596085501281934</v>
+        <v>6.8596085501281934E-2</v>
       </c>
       <c r="B221">
         <v>0.76022495266613932</v>
@@ -8723,7 +8740,7 @@
         <v>0.93301278972684232</v>
       </c>
       <c r="I221">
-        <v>0.094101652837605201</v>
+        <v>9.4101652837605201E-2</v>
       </c>
       <c r="J221">
         <v>0.58626916732451806</v>
@@ -8735,9 +8752,9 @@
         <v>0.96145657083607328</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>0.081399618028772464</v>
+        <v>8.1399618028772464E-2</v>
       </c>
       <c r="B222">
         <v>0.76599053926945027</v>
@@ -8761,7 +8778,7 @@
         <v>0.94902867928002621</v>
       </c>
       <c r="I222">
-        <v>0.087836540566759075</v>
+        <v>8.7836540566759075E-2</v>
       </c>
       <c r="J222">
         <v>0.61879068945909499</v>
@@ -8773,9 +8790,9 @@
         <v>0.95829698319079581</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>0.001685589058456989</v>
+        <v>1.685589058456989E-3</v>
       </c>
       <c r="B223">
         <v>0.19955711781335342</v>
@@ -8811,7 +8828,7 @@
         <v>0.86063702451989932</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>0.13227444747591363</v>
       </c>
@@ -8849,7 +8866,7 @@
         <v>0.94740041451170631</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>0.12664189965174291</v>
       </c>
@@ -8887,9 +8904,9 @@
         <v>0.90304248364493589</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>0.060503067300625449</v>
+        <v>6.0503067300625449E-2</v>
       </c>
       <c r="B226">
         <v>0.57646188546682031</v>
@@ -8925,9 +8942,9 @@
         <v>0.86147130436521635</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>0.053450286305042088</v>
+        <v>5.3450286305042088E-2</v>
       </c>
       <c r="B227">
         <v>0.5573955138743022</v>
@@ -8963,9 +8980,9 @@
         <v>0.87140014986436065</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>0.0029759171607913605</v>
+        <v>2.9759171607913605E-3</v>
       </c>
       <c r="B228">
         <v>0.36378122773310251</v>
@@ -9001,9 +9018,9 @@
         <v>0.89688554591160941</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>0.022943468433103156</v>
+        <v>2.2943468433103156E-2</v>
       </c>
       <c r="B229">
         <v>0.4529614213099547</v>
@@ -9039,7 +9056,7 @@
         <v>0.88251450627540196</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>0.104816247481505</v>
       </c>
@@ -9077,9 +9094,9 @@
         <v>0.93697358899202932</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>0.093305398871877526</v>
+        <v>9.3305398871877526E-2</v>
       </c>
       <c r="B231">
         <v>0.81334573831979895</v>
@@ -9091,7 +9108,7 @@
         <v>0.95334730056406114</v>
       </c>
       <c r="E231">
-        <v>0.079497179693795328</v>
+        <v>7.9497179693795328E-2</v>
       </c>
       <c r="F231">
         <v>0.76793107168134167</v>
@@ -9103,7 +9120,7 @@
         <v>0.96093741606231542</v>
       </c>
       <c r="I231">
-        <v>0.070794520547945203</v>
+        <v>7.0794520547945203E-2</v>
       </c>
       <c r="J231">
         <v>0.64114858588178547</v>
@@ -9115,7 +9132,7 @@
         <v>0.96583185603008326</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>0.10536475391991332</v>
       </c>
@@ -9153,9 +9170,9 @@
         <v>0.93147146522432567</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>0.059188278951086845</v>
+        <v>5.9188278951086845E-2</v>
       </c>
       <c r="B233">
         <v>0.72997129218176249</v>
@@ -9191,7 +9208,7 @@
         <v>0.94148644044932517</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0.10928766941189977</v>
       </c>
@@ -9229,7 +9246,7 @@
         <v>0.95152589038805879</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0.16040356464259908</v>
       </c>
@@ -9267,9 +9284,9 @@
         <v>0.88054343850634698</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>0.097866265878243111</v>
+        <v>9.7866265878243111E-2</v>
       </c>
       <c r="B236">
         <v>0.75408607628203272</v>
@@ -9305,9 +9322,9 @@
         <v>0.9192455815590902</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>0.090115655055785643</v>
+        <v>9.0115655055785643E-2</v>
       </c>
       <c r="B237">
         <v>0.81804439496126535</v>
@@ -9319,7 +9336,7 @@
         <v>0.95531324771333881</v>
       </c>
       <c r="E237">
-        <v>0.066900873826564525</v>
+        <v>6.6900873826564525E-2</v>
       </c>
       <c r="F237">
         <v>0.80136486064103962</v>
@@ -9331,7 +9348,7 @@
         <v>0.96662635231947136</v>
       </c>
       <c r="I237">
-        <v>0.035471389902564932</v>
+        <v>3.5471389902564932E-2</v>
       </c>
       <c r="J237">
         <v>0.69443176404828588</v>
@@ -9343,7 +9360,7 @@
         <v>0.98237599847817703</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0.12002805431234137</v>
       </c>
@@ -9381,9 +9398,9 @@
         <v>0.94327411316921228</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>0.063541923442617179</v>
+        <v>6.3541923442617179E-2</v>
       </c>
       <c r="B239">
         <v>0.76651924038855945</v>
@@ -9407,7 +9424,7 @@
         <v>0.94247009660644898</v>
       </c>
       <c r="I239">
-        <v>0.069211536429904574</v>
+        <v>6.9211536429904574E-2</v>
       </c>
       <c r="J239">
         <v>0.55849256585982732</v>
@@ -9419,7 +9436,7 @@
         <v>0.97121820380087098</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>0.1051010438344217</v>
       </c>
@@ -9433,7 +9450,7 @@
         <v>0.94744947808278912</v>
       </c>
       <c r="E240">
-        <v>0.084721156553083224</v>
+        <v>8.4721156553083224E-2</v>
       </c>
       <c r="F240">
         <v>0.77204187110542466</v>
@@ -9445,7 +9462,7 @@
         <v>0.95840946350995548</v>
       </c>
       <c r="I240">
-        <v>0.049972675936608174</v>
+        <v>4.9972675936608174E-2</v>
       </c>
       <c r="J240">
         <v>0.6285551021844652</v>
@@ -9457,9 +9474,9 @@
         <v>0.97617516472638211</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>0.013051781524526655</v>
+        <v>1.3051781524526655E-2</v>
       </c>
       <c r="B241">
         <v>0.48775188612356402</v>
@@ -9495,9 +9512,9 @@
         <v>0.90207799057856342</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>0.00474977835625224</v>
+        <v>4.74977835625224E-3</v>
       </c>
       <c r="B242">
         <v>0.42246791793671273</v>
@@ -9533,9 +9550,9 @@
         <v>0.82028904859814278</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>0.043807043395816911</v>
+        <v>4.3807043395816911E-2</v>
       </c>
       <c r="B243">
         <v>0.63955243530611416</v>
@@ -9571,9 +9588,9 @@
         <v>0.87660730536231712</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>0.0030260508815813554</v>
+        <v>3.0260508815813554E-3</v>
       </c>
       <c r="B244">
         <v>0.43056889582411922</v>
@@ -9609,9 +9626,9 @@
         <v>0.94069441902399009</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>0.0080196290965108864</v>
+        <v>8.0196290965108864E-3</v>
       </c>
       <c r="B245">
         <v>0.42879486682601997</v>
@@ -9647,9 +9664,9 @@
         <v>0.85192294510800293</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>0.013050589363262083</v>
+        <v>1.3050589363262083E-2</v>
       </c>
       <c r="B246">
         <v>0.48881128426767118</v>
@@ -9685,9 +9702,9 @@
         <v>0.80540891972001327</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>0.0029839515781009676</v>
+        <v>2.9839515781009676E-3</v>
       </c>
       <c r="B247">
         <v>0.35388316289508948</v>
@@ -9723,9 +9740,9 @@
         <v>0.87356135297061188</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>0.0068662333760298559</v>
+        <v>6.8662333760298559E-3</v>
       </c>
       <c r="B248">
         <v>0.62266128217573768</v>
@@ -9761,9 +9778,9 @@
         <v>0.89459888989041236</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>0.0034078914300075397</v>
+        <v>3.4078914300075397E-3</v>
       </c>
       <c r="B249">
         <v>0.37474819026163647</v>
@@ -9799,9 +9816,9 @@
         <v>0.92180614894864699</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>0.0070686816321872802</v>
+        <v>7.0686816321872802E-3</v>
       </c>
       <c r="B250">
         <v>0.48464199547886005</v>
@@ -9837,9 +9854,9 @@
         <v>0.91734294082804857</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>0.011682204438577676</v>
+        <v>1.1682204438577676E-2</v>
       </c>
       <c r="B251">
         <v>0.46320044492411455</v>
@@ -9875,9 +9892,9 @@
         <v>0.84177460605560595</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>0.0051911048661729261</v>
+        <v>5.1911048661729261E-3</v>
       </c>
       <c r="B252">
         <v>0.39919957235451009</v>
@@ -9913,9 +9930,9 @@
         <v>0.78421282879436915</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>0.0074053832490777426</v>
+        <v>7.4053832490777426E-3</v>
       </c>
       <c r="B253">
         <v>0.47924407309589728</v>
@@ -9951,9 +9968,9 @@
         <v>0.90145869524199895</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>0.02467289719626168</v>
+        <v>2.467289719626168E-2</v>
       </c>
       <c r="B254">
         <v>0.54240296996477433</v>
@@ -9989,9 +10006,9 @@
         <v>0.84769183943853632</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>0.012128735377718389</v>
+        <v>1.2128735377718389E-2</v>
       </c>
       <c r="B255">
         <v>0.47562084142191507</v>
@@ -10027,9 +10044,9 @@
         <v>0.83357777927124777</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>0.0035468706793252832</v>
+        <v>3.5468706793252832E-3</v>
       </c>
       <c r="B256">
         <v>0.3831319226133218</v>
@@ -10065,9 +10082,9 @@
         <v>0.8028466525332596</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>0.0064208292204495209</v>
+        <v>6.4208292204495209E-3</v>
       </c>
       <c r="B257">
         <v>0.43926886121155606</v>
@@ -10103,9 +10120,9 @@
         <v>0.91803088263275012</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>0.00062947693701000942</v>
+        <v>6.2947693701000942E-4</v>
       </c>
       <c r="B258">
         <v>0.45087920298415735</v>
@@ -10117,7 +10134,7 @@
         <v>0.99968526153149495</v>
       </c>
       <c r="E258">
-        <v>0.067259486316962783</v>
+        <v>6.7259486316962783E-2</v>
       </c>
       <c r="F258">
         <v>0.84207460041131665</v>
@@ -10129,7 +10146,7 @@
         <v>0.96637025684151856</v>
       </c>
       <c r="I258">
-        <v>0.093478569171553616</v>
+        <v>9.3478569171553616E-2</v>
       </c>
       <c r="J258">
         <v>0.82903316209542721</v>
@@ -10141,9 +10158,9 @@
         <v>0.9532607154142233</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>0.0029040418897452493</v>
+        <v>2.9040418897452493E-3</v>
       </c>
       <c r="B259">
         <v>0.40068098687095344</v>
@@ -10179,9 +10196,9 @@
         <v>0.85176580180816219</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>0.0016114097430162224</v>
+        <v>1.6114097430162224E-3</v>
       </c>
       <c r="B260">
         <v>0.46233470731836157</v>
@@ -10217,9 +10234,9 @@
         <v>0.91322558533857645</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0.013408005270960303</v>
+        <v>1.3408005270960303E-2</v>
       </c>
       <c r="B261">
         <v>0.77641556523625532</v>
@@ -10255,9 +10272,9 @@
         <v>0.91179377367814185</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.01483885242274504</v>
+        <v>1.483885242274504E-2</v>
       </c>
       <c r="B262">
         <v>0.61357221713309429</v>
@@ -10269,7 +10286,7 @@
         <v>0.99258057378862752</v>
       </c>
       <c r="E262">
-        <v>0.059556997812031373</v>
+        <v>5.9556997812031373E-2</v>
       </c>
       <c r="F262">
         <v>0.80244689757086918</v>
@@ -10281,7 +10298,7 @@
         <v>0.97022150109398408</v>
       </c>
       <c r="I262">
-        <v>0.099771369570027274</v>
+        <v>9.9771369570027274E-2</v>
       </c>
       <c r="J262">
         <v>0.68549370707164858</v>
@@ -10293,9 +10310,9 @@
         <v>0.95011431521498646</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>0.035250929156121033</v>
+        <v>3.5250929156121033E-2</v>
       </c>
       <c r="B263">
         <v>0.60080579131150091</v>
@@ -10307,7 +10324,7 @@
         <v>0.98237453542193953</v>
       </c>
       <c r="E263">
-        <v>0.091451763686526674</v>
+        <v>9.1451763686526674E-2</v>
       </c>
       <c r="F263">
         <v>0.75046950635738441</v>
@@ -10331,9 +10348,9 @@
         <v>0.89993691618973792</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>0.034401614163227942</v>
+        <v>3.4401614163227942E-2</v>
       </c>
       <c r="B264">
         <v>0.63523924217386896</v>
@@ -10345,7 +10362,7 @@
         <v>0.98279919291838602</v>
       </c>
       <c r="E264">
-        <v>0.068026819647932224</v>
+        <v>6.8026819647932224E-2</v>
       </c>
       <c r="F264">
         <v>0.77282334206464043</v>
@@ -10369,9 +10386,9 @@
         <v>0.92741297752728213</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0.050608553422812334</v>
+        <v>5.0608553422812334E-2</v>
       </c>
       <c r="B265">
         <v>0.64275873237849501</v>
@@ -10383,7 +10400,7 @@
         <v>0.97469572328859388</v>
       </c>
       <c r="E265">
-        <v>0.089824496953952865</v>
+        <v>8.9824496953952865E-2</v>
       </c>
       <c r="F265">
         <v>0.74006132184438966</v>
@@ -10407,9 +10424,9 @@
         <v>0.89480969312113789</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.053619833892389002</v>
+        <v>5.3619833892389002E-2</v>
       </c>
       <c r="B266">
         <v>0.8421765057147067</v>
@@ -10445,9 +10462,9 @@
         <v>0.8249664085246019</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>0.049073288973839391</v>
+        <v>4.9073288973839391E-2</v>
       </c>
       <c r="B267">
         <v>0.64298029900101705</v>
@@ -10459,7 +10476,7 @@
         <v>0.97546335551308028</v>
       </c>
       <c r="E267">
-        <v>0.081504582057878125</v>
+        <v>8.1504582057878125E-2</v>
       </c>
       <c r="F267">
         <v>0.75890860985258057</v>
@@ -10483,9 +10500,9 @@
         <v>0.90549974690497526</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>0.029891984718208836</v>
+        <v>2.9891984718208836E-2</v>
       </c>
       <c r="B268">
         <v>0.92323145442091492</v>
@@ -10497,7 +10514,7 @@
         <v>0.98505400764089557</v>
       </c>
       <c r="E268">
-        <v>0.071931638433056763</v>
+        <v>7.1931638433056763E-2</v>
       </c>
       <c r="F268">
         <v>0.81026929451562268</v>
@@ -10509,7 +10526,7 @@
         <v>0.96405381814040125</v>
       </c>
       <c r="I268">
-        <v>0.059156555882517545</v>
+        <v>5.9156555882517545E-2</v>
       </c>
       <c r="J268">
         <v>0.73379414600638315</v>
@@ -10521,9 +10538,9 @@
         <v>0.97042172205874133</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>0.010621015686555404</v>
+        <v>1.0621015686555404E-2</v>
       </c>
       <c r="B269">
         <v>0.87232280929664352</v>
@@ -10535,7 +10552,7 @@
         <v>0.99468949215672231</v>
       </c>
       <c r="E269">
-        <v>0.072289950576606282</v>
+        <v>7.2289950576606282E-2</v>
       </c>
       <c r="F269">
         <v>0.82305907122990518</v>
@@ -10547,7 +10564,7 @@
         <v>0.96385884487739681</v>
       </c>
       <c r="I269">
-        <v>0.067874794069192751</v>
+        <v>6.7874794069192751E-2</v>
       </c>
       <c r="J269">
         <v>0.77494755334369148</v>
@@ -10559,9 +10576,9 @@
         <v>0.96606260296540358</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>0.0042762150843119722</v>
+        <v>4.2762150843119722E-3</v>
       </c>
       <c r="B270">
         <v>0.83916724957195443</v>
@@ -10573,7 +10590,7 @@
         <v>0.99786189245784407</v>
       </c>
       <c r="E270">
-        <v>0.069426041806982544</v>
+        <v>6.9426041806982544E-2</v>
       </c>
       <c r="F270">
         <v>0.83875964902334976</v>
@@ -10585,7 +10602,7 @@
         <v>0.96528697909650873</v>
       </c>
       <c r="I270">
-        <v>0.057848911965320049</v>
+        <v>5.7848911965320049E-2</v>
       </c>
       <c r="J270">
         <v>0.78302890334619668</v>
@@ -10597,9 +10614,9 @@
         <v>0.97107554401733998</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>0.0018004412614887268</v>
+        <v>1.8004412614887268E-3</v>
       </c>
       <c r="B271">
         <v>0.80659646399138218</v>
@@ -10611,7 +10628,7 @@
         <v>0.99909977936925565</v>
       </c>
       <c r="E271">
-        <v>0.079084913340491045</v>
+        <v>7.9084913340491045E-2</v>
       </c>
       <c r="F271">
         <v>0.83967513337871114</v>
@@ -10623,7 +10640,7 @@
         <v>0.96046068957922848</v>
       </c>
       <c r="I271">
-        <v>0.027480916030534347</v>
+        <v>2.7480916030534347E-2</v>
       </c>
       <c r="J271">
         <v>0.75721588949482799</v>
@@ -10635,9 +10652,9 @@
         <v>0.98625954198473276</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>0.0024001645274071204</v>
+        <v>2.4001645274071204E-3</v>
       </c>
       <c r="B272">
         <v>0.81929078436745661</v>
@@ -10649,7 +10666,7 @@
         <v>0.99879991773629639</v>
       </c>
       <c r="E272">
-        <v>0.089810188601638002</v>
+        <v>8.9810188601638002E-2</v>
       </c>
       <c r="F272">
         <v>0.8295289663757115</v>
@@ -10661,7 +10678,7 @@
         <v>0.95514974816822118</v>
       </c>
       <c r="I272">
-        <v>0.056425642080303894</v>
+        <v>5.6425642080303894E-2</v>
       </c>
       <c r="J272">
         <v>0.74524555965857187</v>
@@ -10673,9 +10690,9 @@
         <v>0.9717871789598479</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>0.059809376436102679</v>
+        <v>5.9809376436102679E-2</v>
       </c>
       <c r="B273">
         <v>0.82058181061106528</v>
@@ -10687,7 +10704,7 @@
         <v>0.97009531178194874</v>
       </c>
       <c r="E273">
-        <v>0.097923703840252146</v>
+        <v>9.7923703840252146E-2</v>
       </c>
       <c r="F273">
         <v>0.79817816746170056</v>
@@ -10699,7 +10716,7 @@
         <v>0.95132136591917937</v>
       </c>
       <c r="I273">
-        <v>0.084677157626630181</v>
+        <v>8.4677157626630181E-2</v>
       </c>
       <c r="J273">
         <v>0.7349415020721598</v>
@@ -10711,9 +10728,9 @@
         <v>0.95773411881388637</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>0.070505618745370105</v>
+        <v>7.0505618745370105E-2</v>
       </c>
       <c r="B274">
         <v>0.81951683310291223</v>
@@ -10725,7 +10742,7 @@
         <v>0.96474719062731495</v>
       </c>
       <c r="E274">
-        <v>0.082885719830849927</v>
+        <v>8.2885719830849927E-2</v>
       </c>
       <c r="F274">
         <v>0.79520495639954525</v>
@@ -10737,7 +10754,7 @@
         <v>0.95871750644882359</v>
       </c>
       <c r="I274">
-        <v>0.078225072369877718</v>
+        <v>7.8225072369877718E-2</v>
       </c>
       <c r="J274">
         <v>0.73014652723518392</v>
@@ -10749,9 +10766,9 @@
         <v>0.96092755540612329</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>0.018908360308070096</v>
+        <v>1.8908360308070096E-2</v>
       </c>
       <c r="B275">
         <v>0.94843978099004367</v>
@@ -10763,7 +10780,7 @@
         <v>0.9905458198459649</v>
       </c>
       <c r="E275">
-        <v>0.023395468244223686</v>
+        <v>2.3395468244223686E-2</v>
       </c>
       <c r="F275">
         <v>0.75985153324620469</v>
@@ -10775,7 +10792,7 @@
         <v>0.98830226587788805</v>
       </c>
       <c r="I275">
-        <v>0.02484971218088753</v>
+        <v>2.484971218088753E-2</v>
       </c>
       <c r="J275">
         <v>0.72044554834369956</v>
@@ -10787,9 +10804,9 @@
         <v>0.98757514390955614</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>0.026891375827546041</v>
+        <v>2.6891375827546041E-2</v>
       </c>
       <c r="B276">
         <v>0.94452354520581727</v>
@@ -10801,7 +10818,7 @@
         <v>0.98655431208622701</v>
       </c>
       <c r="E276">
-        <v>0.060833665088984232</v>
+        <v>6.0833665088984232E-2</v>
       </c>
       <c r="F276">
         <v>0.71808489339220816</v>
@@ -10813,7 +10830,7 @@
         <v>0.96994342951789747</v>
       </c>
       <c r="I276">
-        <v>0.072602881113519424</v>
+        <v>7.2602881113519424E-2</v>
       </c>
       <c r="J276">
         <v>0.67149915297137452</v>
@@ -10825,9 +10842,9 @@
         <v>0.96378506165740219</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>0.059862110220263512</v>
+        <v>5.9862110220263512E-2</v>
       </c>
       <c r="B277">
         <v>0.8506293832461963</v>
@@ -10839,7 +10856,7 @@
         <v>0.97006894488986828</v>
       </c>
       <c r="E277">
-        <v>0.095717115362899174</v>
+        <v>9.5717115362899174E-2</v>
       </c>
       <c r="F277">
         <v>0.78717092018006207</v>
@@ -10851,7 +10868,7 @@
         <v>0.95214144231855036</v>
       </c>
       <c r="I277">
-        <v>0.086802196225885309</v>
+        <v>8.6802196225885309E-2</v>
       </c>
       <c r="J277">
         <v>0.68608435444373339</v>
@@ -10863,9 +10880,9 @@
         <v>0.95659890188705732</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>0.0047678613513170535</v>
+        <v>4.7678613513170535E-3</v>
       </c>
       <c r="B278">
         <v>0.75423886810991347</v>
@@ -10901,9 +10918,9 @@
         <v>0.86630348736728247</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>0.0003863925426239274</v>
+        <v>3.863925426239274E-4</v>
       </c>
       <c r="B279">
         <v>0.29443519010170832</v>
@@ -10939,9 +10956,9 @@
         <v>0.88126881651184119</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>0.0047192071731949033</v>
+        <v>4.7192071731949033E-3</v>
       </c>
       <c r="B280">
         <v>0.56257349551754354</v>
@@ -10977,9 +10994,9 @@
         <v>0.90686557250974431</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>0.013408005270960303</v>
+        <v>1.3408005270960303E-2</v>
       </c>
       <c r="B281">
         <v>0.77641556523625532</v>
@@ -11015,9 +11032,9 @@
         <v>0.91179377367814185</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>0.01483885242274504</v>
+        <v>1.483885242274504E-2</v>
       </c>
       <c r="B282">
         <v>0.61357221713309429</v>
@@ -11029,7 +11046,7 @@
         <v>0.99258057378862752</v>
       </c>
       <c r="E282">
-        <v>0.059556997812031373</v>
+        <v>5.9556997812031373E-2</v>
       </c>
       <c r="F282">
         <v>0.80244689757086918</v>
@@ -11041,7 +11058,7 @@
         <v>0.97022150109398408</v>
       </c>
       <c r="I282">
-        <v>0.099771369570027274</v>
+        <v>9.9771369570027274E-2</v>
       </c>
       <c r="J282">
         <v>0.68549370707164858</v>
@@ -11053,9 +11070,9 @@
         <v>0.95011431521498646</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>0.035250929156121033</v>
+        <v>3.5250929156121033E-2</v>
       </c>
       <c r="B283">
         <v>0.60080579131150091</v>
@@ -11067,7 +11084,7 @@
         <v>0.98237453542193953</v>
       </c>
       <c r="E283">
-        <v>0.091451763686526674</v>
+        <v>9.1451763686526674E-2</v>
       </c>
       <c r="F283">
         <v>0.75046950635738441</v>
@@ -11091,9 +11108,9 @@
         <v>0.89993691618973792</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>0.034401614163227942</v>
+        <v>3.4401614163227942E-2</v>
       </c>
       <c r="B284">
         <v>0.63523924217386896</v>
@@ -11105,7 +11122,7 @@
         <v>0.98279919291838602</v>
       </c>
       <c r="E284">
-        <v>0.068026819647932224</v>
+        <v>6.8026819647932224E-2</v>
       </c>
       <c r="F284">
         <v>0.77282334206464043</v>
@@ -11129,9 +11146,9 @@
         <v>0.92741297752728213</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>0.050608553422812334</v>
+        <v>5.0608553422812334E-2</v>
       </c>
       <c r="B285">
         <v>0.64275873237849501</v>
@@ -11143,7 +11160,7 @@
         <v>0.97469572328859388</v>
       </c>
       <c r="E285">
-        <v>0.089824496953952865</v>
+        <v>8.9824496953952865E-2</v>
       </c>
       <c r="F285">
         <v>0.74006132184438966</v>
@@ -11167,9 +11184,9 @@
         <v>0.89480969312113789</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>0.053619833892389002</v>
+        <v>5.3619833892389002E-2</v>
       </c>
       <c r="B286">
         <v>0.8421765057147067</v>
@@ -11205,9 +11222,9 @@
         <v>0.8249664085246019</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>0.049073288973839391</v>
+        <v>4.9073288973839391E-2</v>
       </c>
       <c r="B287">
         <v>0.64298029900101705</v>
@@ -11219,7 +11236,7 @@
         <v>0.97546335551308028</v>
       </c>
       <c r="E287">
-        <v>0.081504582057878125</v>
+        <v>8.1504582057878125E-2</v>
       </c>
       <c r="F287">
         <v>0.75890860985258057</v>
@@ -11243,9 +11260,9 @@
         <v>0.90549974690497526</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>0.029891984718208836</v>
+        <v>2.9891984718208836E-2</v>
       </c>
       <c r="B288">
         <v>0.92323145442091492</v>
@@ -11257,7 +11274,7 @@
         <v>0.98505400764089557</v>
       </c>
       <c r="E288">
-        <v>0.071931638433056763</v>
+        <v>7.1931638433056763E-2</v>
       </c>
       <c r="F288">
         <v>0.81026929451562268</v>
@@ -11269,7 +11286,7 @@
         <v>0.96405381814040125</v>
       </c>
       <c r="I288">
-        <v>0.059156555882517545</v>
+        <v>5.9156555882517545E-2</v>
       </c>
       <c r="J288">
         <v>0.73379414600638315</v>
@@ -11281,9 +11298,9 @@
         <v>0.97042172205874133</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>0.010621015686555404</v>
+        <v>1.0621015686555404E-2</v>
       </c>
       <c r="B289">
         <v>0.87232280929664352</v>
@@ -11295,7 +11312,7 @@
         <v>0.99468949215672231</v>
       </c>
       <c r="E289">
-        <v>0.072289950576606282</v>
+        <v>7.2289950576606282E-2</v>
       </c>
       <c r="F289">
         <v>0.82305907122990518</v>
@@ -11307,7 +11324,7 @@
         <v>0.96385884487739681</v>
       </c>
       <c r="I289">
-        <v>0.067874794069192751</v>
+        <v>6.7874794069192751E-2</v>
       </c>
       <c r="J289">
         <v>0.77494755334369148</v>
@@ -11319,9 +11336,9 @@
         <v>0.96606260296540358</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>0.0042762150843119722</v>
+        <v>4.2762150843119722E-3</v>
       </c>
       <c r="B290">
         <v>0.83916724957195443</v>
@@ -11333,7 +11350,7 @@
         <v>0.99786189245784407</v>
       </c>
       <c r="E290">
-        <v>0.069426041806982544</v>
+        <v>6.9426041806982544E-2</v>
       </c>
       <c r="F290">
         <v>0.83875964902334976</v>
@@ -11345,7 +11362,7 @@
         <v>0.96528697909650873</v>
       </c>
       <c r="I290">
-        <v>0.057848911965320049</v>
+        <v>5.7848911965320049E-2</v>
       </c>
       <c r="J290">
         <v>0.78302890334619668</v>
@@ -11357,9 +11374,9 @@
         <v>0.97107554401733998</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>0.0018004412614887268</v>
+        <v>1.8004412614887268E-3</v>
       </c>
       <c r="B291">
         <v>0.80659646399138218</v>
@@ -11371,7 +11388,7 @@
         <v>0.99909977936925565</v>
       </c>
       <c r="E291">
-        <v>0.079084913340491045</v>
+        <v>7.9084913340491045E-2</v>
       </c>
       <c r="F291">
         <v>0.83967513337871114</v>
@@ -11383,7 +11400,7 @@
         <v>0.96046068957922848</v>
       </c>
       <c r="I291">
-        <v>0.027480916030534347</v>
+        <v>2.7480916030534347E-2</v>
       </c>
       <c r="J291">
         <v>0.75721588949482799</v>
@@ -11395,9 +11412,9 @@
         <v>0.98625954198473276</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>0.0024001645274071204</v>
+        <v>2.4001645274071204E-3</v>
       </c>
       <c r="B292">
         <v>0.81929078436745661</v>
@@ -11409,7 +11426,7 @@
         <v>0.99879991773629639</v>
       </c>
       <c r="E292">
-        <v>0.089810188601638002</v>
+        <v>8.9810188601638002E-2</v>
       </c>
       <c r="F292">
         <v>0.8295289663757115</v>
@@ -11421,7 +11438,7 @@
         <v>0.95514974816822118</v>
       </c>
       <c r="I292">
-        <v>0.056425642080303894</v>
+        <v>5.6425642080303894E-2</v>
       </c>
       <c r="J292">
         <v>0.74524555965857187</v>
@@ -11433,9 +11450,9 @@
         <v>0.9717871789598479</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>0.059809376436102679</v>
+        <v>5.9809376436102679E-2</v>
       </c>
       <c r="B293">
         <v>0.82058181061106528</v>
@@ -11447,7 +11464,7 @@
         <v>0.97009531178194874</v>
       </c>
       <c r="E293">
-        <v>0.097923703840252146</v>
+        <v>9.7923703840252146E-2</v>
       </c>
       <c r="F293">
         <v>0.79817816746170056</v>
@@ -11459,7 +11476,7 @@
         <v>0.95132136591917937</v>
       </c>
       <c r="I293">
-        <v>0.084677157626630181</v>
+        <v>8.4677157626630181E-2</v>
       </c>
       <c r="J293">
         <v>0.7349415020721598</v>
@@ -11471,9 +11488,9 @@
         <v>0.95773411881388637</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>0.070505618745370105</v>
+        <v>7.0505618745370105E-2</v>
       </c>
       <c r="B294">
         <v>0.81951683310291223</v>
@@ -11485,7 +11502,7 @@
         <v>0.96474719062731495</v>
       </c>
       <c r="E294">
-        <v>0.082885719830849927</v>
+        <v>8.2885719830849927E-2</v>
       </c>
       <c r="F294">
         <v>0.79520495639954525</v>
@@ -11497,7 +11514,7 @@
         <v>0.95871750644882359</v>
       </c>
       <c r="I294">
-        <v>0.078225072369877718</v>
+        <v>7.8225072369877718E-2</v>
       </c>
       <c r="J294">
         <v>0.73014652723518392</v>
@@ -11509,9 +11526,9 @@
         <v>0.96092755540612329</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>0.018908360308070096</v>
+        <v>1.8908360308070096E-2</v>
       </c>
       <c r="B295">
         <v>0.94843978099004367</v>
@@ -11523,7 +11540,7 @@
         <v>0.9905458198459649</v>
       </c>
       <c r="E295">
-        <v>0.023395468244223686</v>
+        <v>2.3395468244223686E-2</v>
       </c>
       <c r="F295">
         <v>0.75985153324620469</v>
@@ -11535,7 +11552,7 @@
         <v>0.98830226587788805</v>
       </c>
       <c r="I295">
-        <v>0.02484971218088753</v>
+        <v>2.484971218088753E-2</v>
       </c>
       <c r="J295">
         <v>0.72044554834369956</v>
@@ -11547,9 +11564,9 @@
         <v>0.98757514390955614</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>0.026891375827546041</v>
+        <v>2.6891375827546041E-2</v>
       </c>
       <c r="B296">
         <v>0.94452354520581727</v>
@@ -11561,7 +11578,7 @@
         <v>0.98655431208622701</v>
       </c>
       <c r="E296">
-        <v>0.060833665088984232</v>
+        <v>6.0833665088984232E-2</v>
       </c>
       <c r="F296">
         <v>0.71808489339220816</v>
@@ -11573,7 +11590,7 @@
         <v>0.96994342951789747</v>
       </c>
       <c r="I296">
-        <v>0.072602881113519424</v>
+        <v>7.2602881113519424E-2</v>
       </c>
       <c r="J296">
         <v>0.67149915297137452</v>
@@ -11585,9 +11602,9 @@
         <v>0.96378506165740219</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>0.059862110220263512</v>
+        <v>5.9862110220263512E-2</v>
       </c>
       <c r="B297">
         <v>0.8506293832461963</v>
@@ -11599,7 +11616,7 @@
         <v>0.97006894488986828</v>
       </c>
       <c r="E297">
-        <v>0.095717115362899174</v>
+        <v>9.5717115362899174E-2</v>
       </c>
       <c r="F297">
         <v>0.78717092018006207</v>
@@ -11611,7 +11628,7 @@
         <v>0.95214144231855036</v>
       </c>
       <c r="I297">
-        <v>0.086802196225885309</v>
+        <v>8.6802196225885309E-2</v>
       </c>
       <c r="J297">
         <v>0.68608435444373339</v>
@@ -11623,9 +11640,9 @@
         <v>0.95659890188705732</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>0.0047678613513170535</v>
+        <v>4.7678613513170535E-3</v>
       </c>
       <c r="B298">
         <v>0.75423886810991347</v>
@@ -11661,9 +11678,9 @@
         <v>0.86630348736728247</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>0.0003863925426239274</v>
+        <v>3.863925426239274E-4</v>
       </c>
       <c r="B299">
         <v>0.29443519010170832</v>
@@ -11699,9 +11716,9 @@
         <v>0.88126881651184119</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>0.0047192071731949033</v>
+        <v>4.7192071731949033E-3</v>
       </c>
       <c r="B300">
         <v>0.56257349551754354</v>
@@ -11737,9 +11754,9 @@
         <v>0.90686557250974431</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>3.0928632181241783e-05</v>
+        <v>3.0928632181241783E-5</v>
       </c>
       <c r="B301">
         <v>0.44442897969788075</v>
@@ -11751,7 +11768,7 @@
         <v>0.99998453568390933</v>
       </c>
       <c r="E301">
-        <v>0.0302141807778551</v>
+        <v>3.02141807778551E-2</v>
       </c>
       <c r="F301">
         <v>0.76105670690067717</v>
@@ -11763,7 +11780,7 @@
         <v>0.98489290961107245</v>
       </c>
       <c r="I301">
-        <v>0.099333487976494245</v>
+        <v>9.9333487976494245E-2</v>
       </c>
       <c r="J301">
         <v>0.77840837171894683</v>
@@ -11775,9 +11792,9 @@
         <v>0.95049408489909526</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>0.0035969790995843335</v>
+        <v>3.5969790995843335E-3</v>
       </c>
       <c r="B302">
         <v>0.71150878230441972</v>
@@ -11789,7 +11806,7 @@
         <v>0.99853345822844108</v>
       </c>
       <c r="E302">
-        <v>0.03905157777647679</v>
+        <v>3.905157777647679E-2</v>
       </c>
       <c r="F302">
         <v>0.90397707679809947</v>
@@ -11801,7 +11818,7 @@
         <v>0.98047421111176147</v>
       </c>
       <c r="I302">
-        <v>0.054142029155201686</v>
+        <v>5.4142029155201686E-2</v>
       </c>
       <c r="J302">
         <v>0.72222218209213696</v>
@@ -11813,9 +11830,9 @@
         <v>0.97328805885681946</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>0.0052173575983099794</v>
+        <v>5.2173575983099794E-3</v>
       </c>
       <c r="B303">
         <v>0.66171037749135397</v>
@@ -11827,7 +11844,7 @@
         <v>0.99739132120084506</v>
       </c>
       <c r="E303">
-        <v>0.010252534062057872</v>
+        <v>1.0252534062057872E-2</v>
       </c>
       <c r="F303">
         <v>0.70827956292044736</v>
@@ -11839,7 +11856,7 @@
         <v>0.99487373296897108</v>
       </c>
       <c r="I303">
-        <v>0.072042948233424414</v>
+        <v>7.2042948233424414E-2</v>
       </c>
       <c r="J303">
         <v>0.71830387787857863</v>
@@ -11851,9 +11868,9 @@
         <v>0.96428765238289049</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>0.00030784952822853227</v>
+        <v>3.0784952822853227E-4</v>
       </c>
       <c r="B304">
         <v>0.69719886804743192</v>
@@ -11865,7 +11882,7 @@
         <v>0.99984607523588587</v>
       </c>
       <c r="E304">
-        <v>0.0049922402876647551</v>
+        <v>4.9922402876647551E-3</v>
       </c>
       <c r="F304">
         <v>0.78013605879729919</v>
@@ -11877,7 +11894,7 @@
         <v>0.99750387985616751</v>
       </c>
       <c r="I304">
-        <v>0.029229836649327649</v>
+        <v>2.9229836649327649E-2</v>
       </c>
       <c r="J304">
         <v>0.7580311300752407</v>
@@ -11889,9 +11906,9 @@
         <v>0.98540200810987799</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>0.023190527812583593</v>
+        <v>2.3190527812583593E-2</v>
       </c>
       <c r="B305">
         <v>0.89136465679825638</v>
@@ -11903,7 +11920,7 @@
         <v>0.98840473609370827</v>
       </c>
       <c r="E305">
-        <v>0.020566247589012938</v>
+        <v>2.0566247589012938E-2</v>
       </c>
       <c r="F305">
         <v>0.88846935542517158</v>
@@ -11915,7 +11932,7 @@
         <v>0.98971687620549353</v>
       </c>
       <c r="I305">
-        <v>0.026676427937884526</v>
+        <v>2.6676427937884526E-2</v>
       </c>
       <c r="J305">
         <v>0.74548092754141471</v>
@@ -11927,9 +11944,9 @@
         <v>0.98670683805206327</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>0.0002038106938338773</v>
+        <v>2.038106938338773E-4</v>
       </c>
       <c r="B306">
         <v>0.73124133956634474</v>
@@ -11941,7 +11958,7 @@
         <v>0.99989809465308299</v>
       </c>
       <c r="E306">
-        <v>0.0038639110706005903</v>
+        <v>3.8639110706005903E-3</v>
       </c>
       <c r="F306">
         <v>0.85871829178728976</v>
@@ -11953,7 +11970,7 @@
         <v>0.99806804446469977</v>
       </c>
       <c r="I306">
-        <v>0.024358208617229364</v>
+        <v>2.4358208617229364E-2</v>
       </c>
       <c r="J306">
         <v>0.83986387872433554</v>
@@ -11965,9 +11982,9 @@
         <v>0.98782089569138531</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>0.0014378203618108413</v>
+        <v>1.4378203618108413E-3</v>
       </c>
       <c r="B307">
         <v>0.93556977627651572</v>
@@ -11979,7 +11996,7 @@
         <v>0.99928108981909458</v>
       </c>
       <c r="E307">
-        <v>0.0047087939909398364</v>
+        <v>4.7087939909398364E-3</v>
       </c>
       <c r="F307">
         <v>0.8809878310138225</v>
@@ -11991,7 +12008,7 @@
         <v>0.99764560300453009</v>
       </c>
       <c r="I307">
-        <v>0.026278807177729218</v>
+        <v>2.6278807177729218E-2</v>
       </c>
       <c r="J307">
         <v>0.8478577563910622</v>
@@ -12003,10 +12020,13 @@
         <v>0.98686059641113544</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>0</v>
       </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
       <c r="C308">
         <v>1</v>
       </c>
@@ -12014,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="E308">
-        <v>0.048650857053225208</v>
+        <v>4.8650857053225208E-2</v>
       </c>
       <c r="F308">
         <v>0.71103676010675931</v>
@@ -12038,12 +12058,12 @@
         <v>0.92712950094295921</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>0.00011455409817286213</v>
+        <v>1.1455409817286213E-4</v>
       </c>
       <c r="B309">
-        <v>-5.7280329934700431e-05</v>
+        <v>-5.7280329934700431E-5</v>
       </c>
       <c r="C309">
         <v>0.99977091148761632</v>
@@ -12052,7 +12072,7 @@
         <v>0.99994272295091369</v>
       </c>
       <c r="E309">
-        <v>0.0025507379193157303</v>
+        <v>2.5507379193157303E-3</v>
       </c>
       <c r="F309">
         <v>0.79521344309638298</v>
@@ -12064,7 +12084,7 @@
         <v>0.99872463104034215</v>
       </c>
       <c r="I309">
-        <v>0.022490787941271934</v>
+        <v>2.2490787941271934E-2</v>
       </c>
       <c r="J309">
         <v>0.82727456759273799</v>
@@ -12076,9 +12096,9 @@
         <v>0.98875460602936405</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>0.0006312594840667678</v>
+        <v>6.312594840667678E-4</v>
       </c>
       <c r="B310">
         <v>0.66776917621164733</v>
@@ -12090,7 +12110,7 @@
         <v>0.99968437025796664</v>
       </c>
       <c r="E310">
-        <v>0.0013879615579160344</v>
+        <v>1.3879615579160344E-3</v>
       </c>
       <c r="F310">
         <v>0.72925547894040044</v>
@@ -12102,7 +12122,7 @@
         <v>0.99930601922104201</v>
       </c>
       <c r="I310">
-        <v>0.017545776428932725</v>
+        <v>1.7545776428932725E-2</v>
       </c>
       <c r="J310">
         <v>0.83365299281381011</v>
@@ -12114,9 +12134,9 @@
         <v>0.99122711178553358</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>0.0069353474043898824</v>
+        <v>6.9353474043898824E-3</v>
       </c>
       <c r="B311">
         <v>0.85182103872211179</v>
@@ -12128,7 +12148,7 @@
         <v>0.99653232629780497</v>
       </c>
       <c r="E311">
-        <v>0.0077161048371026386</v>
+        <v>7.7161048371026386E-3</v>
       </c>
       <c r="F311">
         <v>0.85113711468409237</v>
@@ -12140,7 +12160,7 @@
         <v>0.99614194758144869</v>
       </c>
       <c r="I311">
-        <v>0.027613985685024812</v>
+        <v>2.7613985685024812E-2</v>
       </c>
       <c r="J311">
         <v>0.8122715981026164</v>
@@ -12152,9 +12172,9 @@
         <v>0.98619300715748759</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>0.003716410372511799</v>
+        <v>3.716410372511799E-3</v>
       </c>
       <c r="B312">
         <v>0.78536385157565047</v>
@@ -12166,7 +12186,7 @@
         <v>0.9981417948137441</v>
       </c>
       <c r="E312">
-        <v>0.014339701502934468</v>
+        <v>1.4339701502934468E-2</v>
       </c>
       <c r="F312">
         <v>0.82559637223734805</v>
@@ -12178,7 +12198,7 @@
         <v>0.99283014924853263</v>
       </c>
       <c r="I312">
-        <v>0.035338987478448651</v>
+        <v>3.5338987478448651E-2</v>
       </c>
       <c r="J312">
         <v>0.77800458942358275</v>
@@ -12190,9 +12210,9 @@
         <v>0.98236301469265019</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>0.00025916003977543217</v>
+        <v>2.5916003977543217E-4</v>
       </c>
       <c r="B313">
         <v>0.57824193212463149</v>
@@ -12204,7 +12224,7 @@
         <v>0.99987041998011228</v>
       </c>
       <c r="E313">
-        <v>0.0051606651398759971</v>
+        <v>5.1606651398759971E-3</v>
       </c>
       <c r="F313">
         <v>0.83497834723528852</v>
@@ -12216,7 +12236,7 @@
         <v>0.99741966743006194</v>
       </c>
       <c r="I313">
-        <v>0.013315755521939868</v>
+        <v>1.3315755521939868E-2</v>
       </c>
       <c r="J313">
         <v>0.76252234441825095</v>
@@ -12228,9 +12248,9 @@
         <v>0.99334587818163544</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>0.00013463253731845645</v>
+        <v>1.3463253731845645E-4</v>
       </c>
       <c r="B314">
         <v>0.48711216207328178</v>
@@ -12242,7 +12262,7 @@
         <v>0.99993268373134081</v>
       </c>
       <c r="E314">
-        <v>0.0043284360747883749</v>
+        <v>4.3284360747883749E-3</v>
       </c>
       <c r="F314">
         <v>0.83994122848344566</v>
@@ -12254,7 +12274,7 @@
         <v>0.99783578196260581</v>
       </c>
       <c r="I314">
-        <v>0.035125628986385285</v>
+        <v>3.5125628986385285E-2</v>
       </c>
       <c r="J314">
         <v>0.83722082260986652</v>
@@ -12266,9 +12286,9 @@
         <v>0.98243718550680736</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>0.00016470764393202065</v>
+        <v>1.6470764393202065E-4</v>
       </c>
       <c r="B315">
         <v>0.69614592310756251</v>
@@ -12280,7 +12300,7 @@
         <v>0.99991764617803403</v>
       </c>
       <c r="E315">
-        <v>0.0074268173991165684</v>
+        <v>7.4268173991165684E-3</v>
       </c>
       <c r="F315">
         <v>0.80567452804960193</v>
@@ -12292,7 +12312,7 @@
         <v>0.99628659130044173</v>
       </c>
       <c r="I315">
-        <v>0.026209478176237179</v>
+        <v>2.6209478176237179E-2</v>
       </c>
       <c r="J315">
         <v>0.7597006550230645</v>
@@ -12304,9 +12324,9 @@
         <v>0.98689925382446153</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>0.00061752900180847775</v>
+        <v>6.1752900180847775E-4</v>
       </c>
       <c r="B316">
         <v>0.68995641412009323</v>
@@ -12318,7 +12338,7 @@
         <v>0.99969123549909578</v>
       </c>
       <c r="E316">
-        <v>0.0021907576492729329</v>
+        <v>2.1907576492729329E-3</v>
       </c>
       <c r="F316">
         <v>0.77389975442422299</v>
@@ -12330,7 +12350,7 @@
         <v>0.99890462117536349</v>
       </c>
       <c r="I316">
-        <v>0.023063237910399485</v>
+        <v>2.3063237910399485E-2</v>
       </c>
       <c r="J316">
         <v>0.79689353368760041</v>
@@ -12342,9 +12362,9 @@
         <v>0.98846838104480017</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>0.0016044383016150701</v>
+        <v>1.6044383016150701E-3</v>
       </c>
       <c r="B317">
         <v>0.68872188720058691</v>
@@ -12356,7 +12376,7 @@
         <v>0.99919778084919231</v>
       </c>
       <c r="E317">
-        <v>0.0072199723572678159</v>
+        <v>7.2199723572678159E-3</v>
       </c>
       <c r="F317">
         <v>0.7388234849780736</v>
@@ -12368,7 +12388,7 @@
         <v>0.99639001382136616</v>
       </c>
       <c r="I317">
-        <v>0.053284749137372779</v>
+        <v>5.3284749137372779E-2</v>
       </c>
       <c r="J317">
         <v>0.78160965878984645</v>
@@ -12380,9 +12400,9 @@
         <v>0.97336621680106794</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>0.00038345191938988539</v>
+        <v>3.8345191938988539E-4</v>
       </c>
       <c r="B318">
         <v>0.75473954800285337</v>
@@ -12394,7 +12414,7 @@
         <v>0.99980827404030492</v>
       </c>
       <c r="E318">
-        <v>0.0023177538238677515</v>
+        <v>2.3177538238677515E-3</v>
       </c>
       <c r="F318">
         <v>0.80841729767963399</v>
@@ -12406,7 +12426,7 @@
         <v>0.99884112308806616</v>
       </c>
       <c r="I318">
-        <v>0.039927286154545327</v>
+        <v>3.9927286154545327E-2</v>
       </c>
       <c r="J318">
         <v>0.77365052322098726</v>
@@ -12418,9 +12438,9 @@
         <v>0.98004771846107963</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>0.00017812994272200979</v>
+        <v>1.7812994272200979E-4</v>
       </c>
       <c r="B319">
         <v>0.40807418692943759</v>
@@ -12432,7 +12452,7 @@
         <v>0.99991093502863893</v>
       </c>
       <c r="E319">
-        <v>0.0021928410190261206</v>
+        <v>2.1928410190261206E-3</v>
       </c>
       <c r="F319">
         <v>0.71378087121878364</v>
@@ -12444,7 +12464,7 @@
         <v>0.99890357949048703</v>
       </c>
       <c r="I319">
-        <v>0.030638350148185688</v>
+        <v>3.0638350148185688E-2</v>
       </c>
       <c r="J319">
         <v>0.77936462222790126</v>
@@ -12456,9 +12476,9 @@
         <v>0.98468901480833115</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>0.0034369178766607859</v>
+        <v>3.4369178766607859E-3</v>
       </c>
       <c r="B320">
         <v>0.61375783087184477</v>
@@ -12470,7 +12490,7 @@
         <v>0.99921417204327612</v>
       </c>
       <c r="E320">
-        <v>0.032030199479404407</v>
+        <v>3.2030199479404407E-2</v>
       </c>
       <c r="F320">
         <v>0.81455827476351572</v>
@@ -12494,9 +12514,9 @@
         <v>0.91197040911576888</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>0.052306779409583143</v>
+        <v>5.2306779409583143E-2</v>
       </c>
       <c r="B321">
         <v>0.89513469286264491</v>
@@ -12508,7 +12528,7 @@
         <v>0.97384661029520847</v>
       </c>
       <c r="E321">
-        <v>0.042501112594570546</v>
+        <v>4.2501112594570546E-2</v>
       </c>
       <c r="F321">
         <v>0.80758226518438414</v>
@@ -12532,9 +12552,9 @@
         <v>0.91673527666518317</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>0.052240352240352242</v>
+        <v>5.2240352240352242E-2</v>
       </c>
       <c r="B322">
         <v>0.85322760877424886</v>
@@ -12546,7 +12566,7 @@
         <v>0.97387982387982386</v>
       </c>
       <c r="E322">
-        <v>0.067715617715617724</v>
+        <v>6.7715617715617724E-2</v>
       </c>
       <c r="F322">
         <v>0.79789908947901167</v>
@@ -12570,9 +12590,9 @@
         <v>0.88084117528561978</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>0.034253918161934405</v>
+        <v>3.4253918161934405E-2</v>
       </c>
       <c r="B323">
         <v>0.84366526421728461</v>
@@ -12584,7 +12604,7 @@
         <v>0.98287304091903283</v>
       </c>
       <c r="E323">
-        <v>0.055554118489010748</v>
+        <v>5.5554118489010748E-2</v>
       </c>
       <c r="F323">
         <v>0.84512408252228977</v>
@@ -12608,9 +12628,9 @@
         <v>0.92844510357896626</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>0.020101013771301916</v>
+        <v>2.0101013771301916E-2</v>
       </c>
       <c r="B324">
         <v>0.8758318184042122</v>
@@ -12622,7 +12642,7 @@
         <v>0.9899494931143491</v>
       </c>
       <c r="E324">
-        <v>0.026874023472984267</v>
+        <v>2.6874023472984267E-2</v>
       </c>
       <c r="F324">
         <v>0.82965609595112277</v>
@@ -12646,9 +12666,9 @@
         <v>0.94153858265809143</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>0.051520093185789165</v>
+        <v>5.1520093185789165E-2</v>
       </c>
       <c r="B325">
         <v>0.88954580207336209</v>
@@ -12660,7 +12680,7 @@
         <v>0.97423995340710556</v>
       </c>
       <c r="E325">
-        <v>0.039295282469423418</v>
+        <v>3.9295282469423418E-2</v>
       </c>
       <c r="F325">
         <v>0.85770787400385207</v>
@@ -12684,9 +12704,9 @@
         <v>0.94186128907008348</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>0.0089004667317920325</v>
+        <v>8.9004667317920325E-3</v>
       </c>
       <c r="B326">
         <v>0.74087298679697844</v>
@@ -12698,7 +12718,7 @@
         <v>0.99554976663410399</v>
       </c>
       <c r="E326">
-        <v>0.043048642446232806</v>
+        <v>4.3048642446232806E-2</v>
       </c>
       <c r="F326">
         <v>0.81327965758782239</v>
@@ -12722,9 +12742,9 @@
         <v>0.92775542323735083</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>0.026767697425828969</v>
+        <v>2.6767697425828969E-2</v>
       </c>
       <c r="B327">
         <v>0.84939678435569954</v>
@@ -12736,7 +12756,7 @@
         <v>0.98661615128708557</v>
       </c>
       <c r="E327">
-        <v>0.067387925392670148</v>
+        <v>6.7387925392670148E-2</v>
       </c>
       <c r="F327">
         <v>0.79713716635754917</v>
@@ -12760,9 +12780,9 @@
         <v>0.89691215368673649</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>0.030976884975233904</v>
+        <v>3.0976884975233904E-2</v>
       </c>
       <c r="B328">
         <v>0.77116808244027246</v>
@@ -12774,7 +12794,7 @@
         <v>0.98639687671986787</v>
       </c>
       <c r="E328">
-        <v>0.08517336268574574</v>
+        <v>8.517336268574574E-2</v>
       </c>
       <c r="F328">
         <v>0.81600869801012954</v>
@@ -12798,9 +12818,9 @@
         <v>0.89225256833608513</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>0.029029585914830208</v>
+        <v>2.9029585914830208E-2</v>
       </c>
       <c r="B329">
         <v>0.7467178009616936</v>
@@ -12812,7 +12832,7 @@
         <v>0.99550188465610534</v>
       </c>
       <c r="E329">
-        <v>0.067744686691239897</v>
+        <v>6.7744686691239897E-2</v>
       </c>
       <c r="F329">
         <v>0.86286627738081734</v>
@@ -12836,9 +12856,9 @@
         <v>0.9358616481060309</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>0.043509031646473698</v>
+        <v>4.3509031646473698E-2</v>
       </c>
       <c r="B330">
         <v>0.89900043791692286</v>
@@ -12850,7 +12870,7 @@
         <v>0.97824548417676316</v>
       </c>
       <c r="E330">
-        <v>0.045599750672016826</v>
+        <v>4.5599750672016826E-2</v>
       </c>
       <c r="F330">
         <v>0.89677725606227821</v>
@@ -12862,7 +12882,7 @@
         <v>0.97720012466399164</v>
       </c>
       <c r="I330">
-        <v>0.057949277338423782</v>
+        <v>5.7949277338423782E-2</v>
       </c>
       <c r="J330">
         <v>0.69184442884475561</v>
@@ -12874,9 +12894,9 @@
         <v>0.97106864743897747</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>0.049159560004943766</v>
+        <v>4.9159560004943766E-2</v>
       </c>
       <c r="B331">
         <v>0.89740541830870546</v>
@@ -12888,7 +12908,7 @@
         <v>0.97688017550364592</v>
       </c>
       <c r="E331">
-        <v>0.048124459275738475</v>
+        <v>4.8124459275738475E-2</v>
       </c>
       <c r="F331">
         <v>0.8749807966711155</v>
@@ -12912,9 +12932,9 @@
         <v>0.95039305504058003</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>0.058909671484610418</v>
+        <v>5.8909671484610418E-2</v>
       </c>
       <c r="B332">
         <v>0.88217447944815552</v>
@@ -12926,7 +12946,7 @@
         <v>0.97054516425769477</v>
       </c>
       <c r="E332">
-        <v>0.05717034797043679</v>
+        <v>5.717034797043679E-2</v>
       </c>
       <c r="F332">
         <v>0.85928565023350367</v>
@@ -12950,9 +12970,9 @@
         <v>0.94362089443874653</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>0.035077288941736021</v>
+        <v>3.5077288941736021E-2</v>
       </c>
       <c r="B333">
         <v>0.90094058776985841</v>
@@ -12964,7 +12984,7 @@
         <v>0.98426209640537821</v>
       </c>
       <c r="E333">
-        <v>0.035283087899021313</v>
+        <v>3.5283087899021313E-2</v>
       </c>
       <c r="F333">
         <v>0.89356353732056437</v>
@@ -12988,9 +13008,9 @@
         <v>0.92824349319593069</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>0.06105238942767547</v>
+        <v>6.105238942767547E-2</v>
       </c>
       <c r="B334">
         <v>0.87779693816400128</v>
@@ -13002,7 +13022,7 @@
         <v>0.96947380528616223</v>
       </c>
       <c r="E334">
-        <v>0.054381121886842701</v>
+        <v>5.4381121886842701E-2</v>
       </c>
       <c r="F334">
         <v>0.85813046756035882</v>
@@ -13026,9 +13046,9 @@
         <v>0.90486582801609494</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>0.017572316842389836</v>
+        <v>1.7572316842389836E-2</v>
       </c>
       <c r="B335">
         <v>0.90723973079036357</v>
@@ -13040,7 +13060,7 @@
         <v>0.99121384157880499</v>
       </c>
       <c r="E335">
-        <v>0.023195458231954583</v>
+        <v>2.3195458231954583E-2</v>
       </c>
       <c r="F335">
         <v>0.87213479685290807</v>
@@ -13052,7 +13072,7 @@
         <v>0.98840227088402277</v>
       </c>
       <c r="I335">
-        <v>0.071172388933946118</v>
+        <v>7.1172388933946118E-2</v>
       </c>
       <c r="J335">
         <v>0.73619706804997775</v>
@@ -13064,9 +13084,9 @@
         <v>0.96446186657054456</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>0.038250775109957461</v>
+        <v>3.8250775109957461E-2</v>
       </c>
       <c r="B336">
         <v>0.86609627941572664</v>
@@ -13078,7 +13098,7 @@
         <v>0.98456539764943385</v>
       </c>
       <c r="E336">
-        <v>0.048958108010671277</v>
+        <v>4.8958108010671277E-2</v>
       </c>
       <c r="F336">
         <v>0.72713026350621379</v>
@@ -13102,9 +13122,9 @@
         <v>0.88218378718324642</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>0.045811287477954141</v>
+        <v>4.5811287477954141E-2</v>
       </c>
       <c r="B337">
         <v>0.86590289959669386</v>
@@ -13116,7 +13136,7 @@
         <v>0.97709435626102303</v>
       </c>
       <c r="E337">
-        <v>0.02777147896195515</v>
+        <v>2.777147896195515E-2</v>
       </c>
       <c r="F337">
         <v>0.78530158406049932</v>
@@ -13140,9 +13160,9 @@
         <v>0.91460590409003106</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>0.051332381632167495</v>
+        <v>5.1332381632167495E-2</v>
       </c>
       <c r="B338">
         <v>0.86784594336480314</v>
@@ -13154,7 +13174,7 @@
         <v>0.97714430168926947</v>
       </c>
       <c r="E338">
-        <v>0.069836480436052173</v>
+        <v>6.9836480436052173E-2</v>
       </c>
       <c r="F338">
         <v>0.76800677566971243</v>
@@ -13178,9 +13198,9 @@
         <v>0.84506647488446207</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>0.04076746197498049</v>
+        <v>4.076746197498049E-2</v>
       </c>
       <c r="B339">
         <v>0.86519201271480117</v>
@@ -13192,7 +13212,7 @@
         <v>0.97961626901250975</v>
       </c>
       <c r="E339">
-        <v>0.086265637195958048</v>
+        <v>8.6265637195958048E-2</v>
       </c>
       <c r="F339">
         <v>0.71989863480586658</v>
@@ -13216,9 +13236,9 @@
         <v>0.8265559845016841</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>0.053510865469162165</v>
+        <v>5.3510865469162165E-2</v>
       </c>
       <c r="B340">
         <v>0.86107653814547525</v>
@@ -13230,7 +13250,7 @@
         <v>0.97324456726541886</v>
       </c>
       <c r="E340">
-        <v>0.035178439336208463</v>
+        <v>3.5178439336208463E-2</v>
       </c>
       <c r="F340">
         <v>0.85893025474439688</v>
@@ -13254,9 +13274,9 @@
         <v>0.94132972314105334</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>0.09006703229737964</v>
+        <v>9.006703229737964E-2</v>
       </c>
       <c r="B341">
         <v>0.80451831931724016</v>
@@ -13268,7 +13288,7 @@
         <v>0.95496648385131011</v>
       </c>
       <c r="E341">
-        <v>0.068577696526508261</v>
+        <v>6.8577696526508261E-2</v>
       </c>
       <c r="F341">
         <v>0.66551636025855487</v>
@@ -13292,9 +13312,9 @@
         <v>0.87619581555961812</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>0.090435039440248915</v>
+        <v>9.0435039440248915E-2</v>
       </c>
       <c r="B342">
         <v>0.78705095712996831</v>
@@ -13306,7 +13326,7 @@
         <v>0.95478248027987545</v>
       </c>
       <c r="E342">
-        <v>0.071109572089849415</v>
+        <v>7.1109572089849415E-2</v>
       </c>
       <c r="F342">
         <v>0.66258609334800045</v>
@@ -13330,9 +13350,9 @@
         <v>0.87958672186773812</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>0.078412787867920178</v>
+        <v>7.8412787867920178E-2</v>
       </c>
       <c r="B343">
         <v>0.79887327702919653</v>
@@ -13344,7 +13364,7 @@
         <v>0.96079360606603992</v>
       </c>
       <c r="E343">
-        <v>0.055680508235776305</v>
+        <v>5.5680508235776305E-2</v>
       </c>
       <c r="F343">
         <v>0.64432948209388685</v>
@@ -13368,9 +13388,9 @@
         <v>0.89519643756777734</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>0.082008485495409539</v>
+        <v>8.2008485495409539E-2</v>
       </c>
       <c r="B344">
         <v>0.81213425019392427</v>
@@ -13382,7 +13402,7 @@
         <v>0.95899575725229513</v>
       </c>
       <c r="E344">
-        <v>0.056002113287293862</v>
+        <v>5.6002113287293862E-2</v>
       </c>
       <c r="F344">
         <v>0.70202872419248152</v>
@@ -13406,9 +13426,9 @@
         <v>0.89749568267625546</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>0.043355090538851795</v>
+        <v>4.3355090538851795E-2</v>
       </c>
       <c r="B345">
         <v>0.75091459834132324</v>
@@ -13420,7 +13440,7 @@
         <v>0.97832245473057411</v>
       </c>
       <c r="E345">
-        <v>0.026631417006467421</v>
+        <v>2.6631417006467421E-2</v>
       </c>
       <c r="F345">
         <v>0.66265087681404156</v>
@@ -13444,9 +13464,9 @@
         <v>0.90592746934325097</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>0.0032626494019837235</v>
+        <v>3.2626494019837235E-3</v>
       </c>
       <c r="B346">
         <v>0.45372006483460131</v>
@@ -13458,7 +13478,7 @@
         <v>0.99836867529900808</v>
       </c>
       <c r="E346">
-        <v>0.032214069001563955</v>
+        <v>3.2214069001563955E-2</v>
       </c>
       <c r="F346">
         <v>0.77719122925021589</v>
@@ -13470,7 +13490,7 @@
         <v>0.98389296549921801</v>
       </c>
       <c r="I346">
-        <v>0.094931255691261082</v>
+        <v>9.4931255691261082E-2</v>
       </c>
       <c r="J346">
         <v>0.72954675785470346</v>
@@ -13482,9 +13502,9 @@
         <v>0.95254526126376282</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>0.023242037616288722</v>
+        <v>2.3242037616288722E-2</v>
       </c>
       <c r="B347">
         <v>0.72472954760729091</v>
@@ -13496,7 +13516,7 @@
         <v>0.98837898119185574</v>
       </c>
       <c r="E347">
-        <v>0.053561251004133219</v>
+        <v>5.3561251004133219E-2</v>
       </c>
       <c r="F347">
         <v>0.76808157441065372</v>
@@ -13520,9 +13540,9 @@
         <v>0.9263366378104585</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>0.030377692597022242</v>
+        <v>3.0377692597022242E-2</v>
       </c>
       <c r="B348">
         <v>0.73111206807551532</v>
@@ -13534,7 +13554,7 @@
         <v>0.98481115370148897</v>
       </c>
       <c r="E348">
-        <v>0.041678464717839918</v>
+        <v>4.1678464717839918E-2</v>
       </c>
       <c r="F348">
         <v>0.75085671746899918</v>
@@ -13558,9 +13578,9 @@
         <v>0.9258603420660042</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0.017776358320844843</v>
+        <v>1.7776358320844843E-2</v>
       </c>
       <c r="B349">
         <v>0.66729251579420967</v>
@@ -13572,7 +13592,7 @@
         <v>0.99169222859028039</v>
       </c>
       <c r="E349">
-        <v>0.038890390237567948</v>
+        <v>3.8890390237567948E-2</v>
       </c>
       <c r="F349">
         <v>0.77268455799011915</v>
@@ -13596,9 +13616,9 @@
         <v>0.9392006429671953</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>0.0018252137730279182</v>
+        <v>1.8252137730279182E-3</v>
       </c>
       <c r="B350">
         <v>0.41777828223065994</v>
@@ -13634,9 +13654,9 @@
         <v>0.87469245571786203</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>0.00075028697885232121</v>
+        <v>7.5028697885232121E-4</v>
       </c>
       <c r="B351">
         <v>0.34602303532125989</v>
@@ -13648,7 +13668,7 @@
         <v>0.99962485651057387</v>
       </c>
       <c r="E351">
-        <v>0.082332753458538965</v>
+        <v>8.2332753458538965E-2</v>
       </c>
       <c r="F351">
         <v>0.85213649825157911</v>
@@ -13672,9 +13692,9 @@
         <v>0.93952813181698058</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>0.0014314238087387507</v>
+        <v>1.4314238087387507E-3</v>
       </c>
       <c r="B352">
         <v>0.50156828547029564</v>
@@ -13686,7 +13706,7 @@
         <v>0.99928428809563064</v>
       </c>
       <c r="E352">
-        <v>0.073214580111321328</v>
+        <v>7.3214580111321328E-2</v>
       </c>
       <c r="F352">
         <v>0.86612388085360892</v>
@@ -13698,7 +13718,7 @@
         <v>0.96339270994433945</v>
       </c>
       <c r="I352">
-        <v>0.086296275942920997</v>
+        <v>8.6296275942920997E-2</v>
       </c>
       <c r="J352">
         <v>0.84648858335774257</v>
@@ -13710,9 +13730,9 @@
         <v>0.95685535117859111</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>0.002121158076214256</v>
+        <v>2.121158076214256E-3</v>
       </c>
       <c r="B353">
         <v>0.47241311716975698</v>
@@ -13748,9 +13768,9 @@
         <v>0.87195152884291471</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>0.00088490651519045364</v>
+        <v>8.8490651519045364E-4</v>
       </c>
       <c r="B354">
         <v>0.48107265213962525</v>
@@ -13786,9 +13806,9 @@
         <v>0.91803354696495609</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>0.00037586510255942343</v>
+        <v>3.7586510255942343E-4</v>
       </c>
       <c r="B355">
         <v>0.27363295896053114</v>
@@ -13800,7 +13820,7 @@
         <v>0.99981206744872031</v>
       </c>
       <c r="E355">
-        <v>0.092313013920627074</v>
+        <v>9.2313013920627074E-2</v>
       </c>
       <c r="F355">
         <v>0.82782812469430866</v>
@@ -13824,9 +13844,9 @@
         <v>0.92691057951317302</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>0.0035849112299886189</v>
+        <v>3.5849112299886189E-3</v>
       </c>
       <c r="B356">
         <v>0.45415447593518748</v>
@@ -13838,7 +13858,7 @@
         <v>0.99820754438500559</v>
       </c>
       <c r="E356">
-        <v>0.031322874882334227</v>
+        <v>3.1322874882334227E-2</v>
       </c>
       <c r="F356">
         <v>0.72450022262285774</v>
@@ -13862,9 +13882,9 @@
         <v>0.93052608216979515</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>0.015545561530486036</v>
+        <v>1.5545561530486036E-2</v>
       </c>
       <c r="B357">
         <v>0.60293537599714631</v>
@@ -13876,7 +13896,7 @@
         <v>0.99222721923475699</v>
       </c>
       <c r="E357">
-        <v>0.028394069816673723</v>
+        <v>2.8394069816673723E-2</v>
       </c>
       <c r="F357">
         <v>0.72239295887021371</v>
@@ -13900,9 +13920,9 @@
         <v>0.93217694536216855</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>0.015739098726223831</v>
+        <v>1.5739098726223831E-2</v>
       </c>
       <c r="B358">
         <v>0.61470323703745322</v>
@@ -13914,7 +13934,7 @@
         <v>0.99213045063688809</v>
       </c>
       <c r="E358">
-        <v>0.036701708237626106</v>
+        <v>3.6701708237626106E-2</v>
       </c>
       <c r="F358">
         <v>0.72497603203788652</v>
@@ -13938,9 +13958,9 @@
         <v>0.92754768219694972</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>0.0022523035662558059</v>
+        <v>2.2523035662558059E-3</v>
       </c>
       <c r="B359">
         <v>0.39078740022829589</v>
@@ -13952,7 +13972,7 @@
         <v>0.99887384821687197</v>
       </c>
       <c r="E359">
-        <v>0.041446291347834424</v>
+        <v>4.1446291347834424E-2</v>
       </c>
       <c r="F359">
         <v>0.71572744856425119</v>
@@ -13976,9 +13996,9 @@
         <v>0.91253988454231905</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>0.0014431489137672071</v>
+        <v>1.4431489137672071E-3</v>
       </c>
       <c r="B360">
         <v>0.32195755212825022</v>
@@ -13990,7 +14010,7 @@
         <v>0.9992784255431163</v>
       </c>
       <c r="E360">
-        <v>0.036078722844180178</v>
+        <v>3.6078722844180178E-2</v>
       </c>
       <c r="F360">
         <v>0.75569937951949873</v>
@@ -14014,9 +14034,9 @@
         <v>0.93117996521164637</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>0.031002942749041872</v>
+        <v>3.1002942749041872E-2</v>
       </c>
       <c r="B361">
         <v>0.89574810429768092</v>
@@ -14028,7 +14048,7 @@
         <v>0.98449852862547904</v>
       </c>
       <c r="E361">
-        <v>0.062479337493724717</v>
+        <v>6.2479337493724717E-2</v>
       </c>
       <c r="F361">
         <v>0.77043223684965079</v>
@@ -14052,9 +14072,9 @@
         <v>0.93370855764482119</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>0.0041236496394050932</v>
+        <v>4.1236496394050932E-3</v>
       </c>
       <c r="B362">
         <v>0.9156736900333583</v>
@@ -14066,7 +14086,7 @@
         <v>0.99793817518029748</v>
       </c>
       <c r="E362">
-        <v>0.021294550677798722</v>
+        <v>2.1294550677798722E-2</v>
       </c>
       <c r="F362">
         <v>0.63329484671806757</v>
@@ -14090,9 +14110,9 @@
         <v>0.92869198312236279</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>0.005867336554844187</v>
+        <v>5.867336554844187E-3</v>
       </c>
       <c r="B363">
         <v>0.90744518992539813</v>
@@ -14104,7 +14124,7 @@
         <v>0.99706633172257797</v>
       </c>
       <c r="E363">
-        <v>0.051765143717763092</v>
+        <v>5.1765143717763092E-2</v>
       </c>
       <c r="F363">
         <v>0.64032651610788471</v>
@@ -14128,9 +14148,9 @@
         <v>0.89902492115827082</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>0.0074939209064845734</v>
+        <v>7.4939209064845734E-3</v>
       </c>
       <c r="B364">
         <v>0.92963805546481981</v>
@@ -14142,7 +14162,7 @@
         <v>0.9962530395467577</v>
       </c>
       <c r="E364">
-        <v>0.013482838610173079</v>
+        <v>1.3482838610173079E-2</v>
       </c>
       <c r="F364">
         <v>0.63393043146510586</v>
@@ -14166,9 +14186,9 @@
         <v>0.95011411904450949</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>0.0072032128514056219</v>
+        <v>7.2032128514056219E-3</v>
       </c>
       <c r="B365">
         <v>0.89953672379544924</v>
@@ -14204,9 +14224,9 @@
         <v>0.94416385542168668</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>0.01358527485869546</v>
+        <v>1.358527485869546E-2</v>
       </c>
       <c r="B366">
         <v>0.86753584795239214</v>
@@ -14218,7 +14238,7 @@
         <v>0.99320736257065223</v>
       </c>
       <c r="E366">
-        <v>0.079154117723331904</v>
+        <v>7.9154117723331904E-2</v>
       </c>
       <c r="F366">
         <v>0.80640580573291631</v>
@@ -14242,9 +14262,9 @@
         <v>0.92794254302986001</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>0.0043615093619862036</v>
+        <v>4.3615093619862036E-3</v>
       </c>
       <c r="B367">
         <v>0.91197984968908563</v>
@@ -14256,7 +14276,7 @@
         <v>0.9978192453190069</v>
       </c>
       <c r="E367">
-        <v>0.012620402454143753</v>
+        <v>1.2620402454143753E-2</v>
       </c>
       <c r="F367">
         <v>0.76420697744556187</v>
@@ -14268,7 +14288,7 @@
         <v>0.99368979877292807</v>
       </c>
       <c r="I367">
-        <v>0.07305846075595257</v>
+        <v>7.305846075595257E-2</v>
       </c>
       <c r="J367">
         <v>0.7869725290995917</v>
@@ -14280,9 +14300,9 @@
         <v>0.96347076962202383</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>0.010490092690236999</v>
+        <v>1.0490092690236999E-2</v>
       </c>
       <c r="B368">
         <v>0.78588265105704047</v>
@@ -14294,7 +14314,7 @@
         <v>0.99475495365488154</v>
       </c>
       <c r="E368">
-        <v>0.036095539397975988</v>
+        <v>3.6095539397975988E-2</v>
       </c>
       <c r="F368">
         <v>0.79274767224476184</v>
@@ -14306,7 +14326,7 @@
         <v>0.9819522303010122</v>
       </c>
       <c r="I368">
-        <v>0.094386166151720893</v>
+        <v>9.4386166151720893E-2</v>
       </c>
       <c r="J368">
         <v>0.78831296590454991</v>
@@ -14318,9 +14338,9 @@
         <v>0.95280691692413966</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>0.0060698088271329692</v>
+        <v>6.0698088271329692E-3</v>
       </c>
       <c r="B369">
         <v>0.95611318505268761</v>
@@ -14332,7 +14352,7 @@
         <v>0.99696509558643354</v>
       </c>
       <c r="E369">
-        <v>0.012742179748289728</v>
+        <v>1.2742179748289728E-2</v>
       </c>
       <c r="F369">
         <v>0.70433769607991736</v>
@@ -14356,9 +14376,9 @@
         <v>0.94500951378595122</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>0.0080243555847912523</v>
+        <v>8.0243555847912523E-3</v>
       </c>
       <c r="B370">
         <v>0.94785172209407453</v>
@@ -14370,7 +14390,7 @@
         <v>0.99598782220760429</v>
       </c>
       <c r="E370">
-        <v>0.017663702335622991</v>
+        <v>1.7663702335622991E-2</v>
       </c>
       <c r="F370">
         <v>0.69135914812702171</v>
@@ -14394,9 +14414,9 @@
         <v>0.94104228072172824</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>0.012642991404161415</v>
+        <v>1.2642991404161415E-2</v>
       </c>
       <c r="B371">
         <v>0.9118225173965252</v>
@@ -14408,7 +14428,7 @@
         <v>0.99367850429791926</v>
       </c>
       <c r="E371">
-        <v>0.072975224272450137</v>
+        <v>7.2975224272450137E-2</v>
       </c>
       <c r="F371">
         <v>0.84981568997156176</v>
@@ -14420,7 +14440,7 @@
         <v>0.96351238786377491</v>
       </c>
       <c r="I371">
-        <v>0.086978896365848657</v>
+        <v>8.6978896365848657E-2</v>
       </c>
       <c r="J371">
         <v>0.72059724754480259</v>
@@ -14432,9 +14452,9 @@
         <v>0.95651055181707578</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>0.015380947718400517</v>
+        <v>1.5380947718400517E-2</v>
       </c>
       <c r="B372">
         <v>0.85413356840072729</v>
@@ -14446,7 +14466,7 @@
         <v>0.9923095261407997</v>
       </c>
       <c r="E372">
-        <v>0.089463220675944338</v>
+        <v>8.9463220675944338E-2</v>
       </c>
       <c r="F372">
         <v>0.81495776087327054</v>
@@ -14470,9 +14490,9 @@
         <v>0.9320479691444481</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>0.03129403040415276</v>
+        <v>3.129403040415276E-2</v>
       </c>
       <c r="B373">
         <v>0.81794227425896271</v>
@@ -14484,7 +14504,7 @@
         <v>0.98435298479792355</v>
       </c>
       <c r="E373">
-        <v>0.074538661190496555</v>
+        <v>7.4538661190496555E-2</v>
       </c>
       <c r="F373">
         <v>0.76313766045831022</v>
@@ -14508,9 +14528,9 @@
         <v>0.89950467280834356</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>0.056124916155802021</v>
+        <v>5.6124916155802021E-2</v>
       </c>
       <c r="B374">
         <v>0.82822050186205198</v>
@@ -14522,7 +14542,7 @@
         <v>0.97193754192209891</v>
       </c>
       <c r="E374">
-        <v>0.092428803926768277</v>
+        <v>9.2428803926768277E-2</v>
       </c>
       <c r="F374">
         <v>0.80961063700639624</v>
@@ -14546,9 +14566,9 @@
         <v>0.90978537618530131</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>0.019218968064147086</v>
+        <v>1.9218968064147086E-2</v>
       </c>
       <c r="B375">
         <v>0.91739157676349814</v>
@@ -14560,7 +14580,7 @@
         <v>0.99039051596792649</v>
       </c>
       <c r="E375">
-        <v>0.072255568418064395</v>
+        <v>7.2255568418064395E-2</v>
       </c>
       <c r="F375">
         <v>0.82633873207203423</v>
@@ -14584,9 +14604,9 @@
         <v>0.90988027667426508</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>0.040825249681579301</v>
+        <v>4.0825249681579301E-2</v>
       </c>
       <c r="B376">
         <v>0.84996387321149325</v>
@@ -14622,9 +14642,9 @@
         <v>0.91751290820785159</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>0.031032498064606291</v>
+        <v>3.1032498064606291E-2</v>
       </c>
       <c r="B377">
         <v>0.85214969060583035</v>
@@ -14660,9 +14680,9 @@
         <v>0.89503576877270585</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>0.035525889615174076</v>
+        <v>3.5525889615174076E-2</v>
       </c>
       <c r="B378">
         <v>0.87248776984925158</v>
@@ -14674,7 +14694,7 @@
         <v>0.98223705519241289</v>
       </c>
       <c r="E378">
-        <v>0.093294289453796073</v>
+        <v>9.3294289453796073E-2</v>
       </c>
       <c r="F378">
         <v>0.84853747847080518</v>
@@ -14698,9 +14718,9 @@
         <v>0.93595200077784713</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>0.030718430132100176</v>
+        <v>3.0718430132100176E-2</v>
       </c>
       <c r="B379">
         <v>0.87438107039749136</v>
@@ -14736,9 +14756,9 @@
         <v>0.92488797196382255</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>0.0074800962784669503</v>
+        <v>7.4800962784669503E-3</v>
       </c>
       <c r="B380">
         <v>0.94454930177834628</v>
@@ -14750,7 +14770,7 @@
         <v>0.99625995186076655</v>
       </c>
       <c r="E380">
-        <v>0.011298319241292763</v>
+        <v>1.1298319241292763E-2</v>
       </c>
       <c r="F380">
         <v>0.76333704229196653</v>
@@ -14762,7 +14782,7 @@
         <v>0.99435084037935373</v>
       </c>
       <c r="I380">
-        <v>0.065029109835627152</v>
+        <v>6.5029109835627152E-2</v>
       </c>
       <c r="J380">
         <v>0.82115779180373116</v>
@@ -14774,9 +14794,9 @@
         <v>0.96748544508218648</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>0.031002942749041872</v>
+        <v>3.1002942749041872E-2</v>
       </c>
       <c r="B381">
         <v>0.89574810429768092</v>
@@ -14788,7 +14808,7 @@
         <v>0.98449852862547904</v>
       </c>
       <c r="E381">
-        <v>0.062479337493724717</v>
+        <v>6.2479337493724717E-2</v>
       </c>
       <c r="F381">
         <v>0.77043223684965079</v>
@@ -14812,9 +14832,9 @@
         <v>0.93370855764482119</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>0.0041236496394050932</v>
+        <v>4.1236496394050932E-3</v>
       </c>
       <c r="B382">
         <v>0.9156736900333583</v>
@@ -14826,7 +14846,7 @@
         <v>0.99793817518029748</v>
       </c>
       <c r="E382">
-        <v>0.021294550677798722</v>
+        <v>2.1294550677798722E-2</v>
       </c>
       <c r="F382">
         <v>0.63329484671806757</v>
@@ -14850,9 +14870,9 @@
         <v>0.92869198312236279</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>0.005867336554844187</v>
+        <v>5.867336554844187E-3</v>
       </c>
       <c r="B383">
         <v>0.90744518992539813</v>
@@ -14864,7 +14884,7 @@
         <v>0.99706633172257797</v>
       </c>
       <c r="E383">
-        <v>0.051765143717763092</v>
+        <v>5.1765143717763092E-2</v>
       </c>
       <c r="F383">
         <v>0.64032651610788471</v>
@@ -14888,9 +14908,9 @@
         <v>0.89902492115827082</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>0.0074939209064845734</v>
+        <v>7.4939209064845734E-3</v>
       </c>
       <c r="B384">
         <v>0.92963805546481981</v>
@@ -14902,7 +14922,7 @@
         <v>0.9962530395467577</v>
       </c>
       <c r="E384">
-        <v>0.013482838610173079</v>
+        <v>1.3482838610173079E-2</v>
       </c>
       <c r="F384">
         <v>0.63393043146510586</v>
@@ -14926,9 +14946,9 @@
         <v>0.95011411904450949</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>0.0072032128514056219</v>
+        <v>7.2032128514056219E-3</v>
       </c>
       <c r="B385">
         <v>0.89953672379544924</v>
@@ -14964,9 +14984,9 @@
         <v>0.94416385542168668</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>0.01358527485869546</v>
+        <v>1.358527485869546E-2</v>
       </c>
       <c r="B386">
         <v>0.86753584795239214</v>
@@ -14978,7 +14998,7 @@
         <v>0.99320736257065223</v>
       </c>
       <c r="E386">
-        <v>0.079154117723331904</v>
+        <v>7.9154117723331904E-2</v>
       </c>
       <c r="F386">
         <v>0.80640580573291631</v>
@@ -15002,9 +15022,9 @@
         <v>0.92794254302986001</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>0.0043615093619862036</v>
+        <v>4.3615093619862036E-3</v>
       </c>
       <c r="B387">
         <v>0.91197984968908563</v>
@@ -15016,7 +15036,7 @@
         <v>0.9978192453190069</v>
       </c>
       <c r="E387">
-        <v>0.012620402454143753</v>
+        <v>1.2620402454143753E-2</v>
       </c>
       <c r="F387">
         <v>0.76420697744556187</v>
@@ -15028,7 +15048,7 @@
         <v>0.99368979877292807</v>
       </c>
       <c r="I387">
-        <v>0.07305846075595257</v>
+        <v>7.305846075595257E-2</v>
       </c>
       <c r="J387">
         <v>0.7869725290995917</v>
@@ -15040,9 +15060,9 @@
         <v>0.96347076962202383</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>0.010490092690236999</v>
+        <v>1.0490092690236999E-2</v>
       </c>
       <c r="B388">
         <v>0.78588265105704047</v>
@@ -15054,7 +15074,7 @@
         <v>0.99475495365488154</v>
       </c>
       <c r="E388">
-        <v>0.036095539397975988</v>
+        <v>3.6095539397975988E-2</v>
       </c>
       <c r="F388">
         <v>0.79274767224476184</v>
@@ -15066,7 +15086,7 @@
         <v>0.9819522303010122</v>
       </c>
       <c r="I388">
-        <v>0.094386166151720893</v>
+        <v>9.4386166151720893E-2</v>
       </c>
       <c r="J388">
         <v>0.78831296590454991</v>
@@ -15078,9 +15098,9 @@
         <v>0.95280691692413966</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>0.0060698088271329692</v>
+        <v>6.0698088271329692E-3</v>
       </c>
       <c r="B389">
         <v>0.95611318505268761</v>
@@ -15092,7 +15112,7 @@
         <v>0.99696509558643354</v>
       </c>
       <c r="E389">
-        <v>0.012742179748289728</v>
+        <v>1.2742179748289728E-2</v>
       </c>
       <c r="F389">
         <v>0.70433769607991736</v>
@@ -15116,9 +15136,9 @@
         <v>0.94500951378595122</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>0.0080243555847912523</v>
+        <v>8.0243555847912523E-3</v>
       </c>
       <c r="B390">
         <v>0.94785172209407453</v>
@@ -15130,7 +15150,7 @@
         <v>0.99598782220760429</v>
       </c>
       <c r="E390">
-        <v>0.017663702335622991</v>
+        <v>1.7663702335622991E-2</v>
       </c>
       <c r="F390">
         <v>0.69135914812702171</v>
@@ -15154,9 +15174,9 @@
         <v>0.94104228072172824</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>0.012642991404161415</v>
+        <v>1.2642991404161415E-2</v>
       </c>
       <c r="B391">
         <v>0.9118225173965252</v>
@@ -15168,7 +15188,7 @@
         <v>0.99367850429791926</v>
       </c>
       <c r="E391">
-        <v>0.072975224272450137</v>
+        <v>7.2975224272450137E-2</v>
       </c>
       <c r="F391">
         <v>0.84981568997156176</v>
@@ -15180,7 +15200,7 @@
         <v>0.96351238786377491</v>
       </c>
       <c r="I391">
-        <v>0.086978896365848657</v>
+        <v>8.6978896365848657E-2</v>
       </c>
       <c r="J391">
         <v>0.72059724754480259</v>
@@ -15192,9 +15212,9 @@
         <v>0.95651055181707578</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>0.015380947718400517</v>
+        <v>1.5380947718400517E-2</v>
       </c>
       <c r="B392">
         <v>0.85413356840072729</v>
@@ -15206,7 +15226,7 @@
         <v>0.9923095261407997</v>
       </c>
       <c r="E392">
-        <v>0.089463220675944338</v>
+        <v>8.9463220675944338E-2</v>
       </c>
       <c r="F392">
         <v>0.81495776087327054</v>
@@ -15230,9 +15250,9 @@
         <v>0.9320479691444481</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>0.03129403040415276</v>
+        <v>3.129403040415276E-2</v>
       </c>
       <c r="B393">
         <v>0.81794227425896271</v>
@@ -15244,7 +15264,7 @@
         <v>0.98435298479792355</v>
       </c>
       <c r="E393">
-        <v>0.074538661190496555</v>
+        <v>7.4538661190496555E-2</v>
       </c>
       <c r="F393">
         <v>0.76313766045831022</v>
@@ -15268,9 +15288,9 @@
         <v>0.89950467280834356</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>0.056124916155802021</v>
+        <v>5.6124916155802021E-2</v>
       </c>
       <c r="B394">
         <v>0.82822050186205198</v>
@@ -15282,7 +15302,7 @@
         <v>0.97193754192209891</v>
       </c>
       <c r="E394">
-        <v>0.092428803926768277</v>
+        <v>9.2428803926768277E-2</v>
       </c>
       <c r="F394">
         <v>0.80961063700639624</v>
@@ -15306,9 +15326,9 @@
         <v>0.90978537618530131</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>0.019218968064147086</v>
+        <v>1.9218968064147086E-2</v>
       </c>
       <c r="B395">
         <v>0.91739157676349814</v>
@@ -15320,7 +15340,7 @@
         <v>0.99039051596792649</v>
       </c>
       <c r="E395">
-        <v>0.072255568418064395</v>
+        <v>7.2255568418064395E-2</v>
       </c>
       <c r="F395">
         <v>0.82633873207203423</v>
@@ -15344,9 +15364,9 @@
         <v>0.90988027667426508</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>0.040825249681579301</v>
+        <v>4.0825249681579301E-2</v>
       </c>
       <c r="B396">
         <v>0.84996387321149325</v>
@@ -15382,9 +15402,9 @@
         <v>0.91751290820785159</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>0.031032498064606291</v>
+        <v>3.1032498064606291E-2</v>
       </c>
       <c r="B397">
         <v>0.85214969060583035</v>
@@ -15420,9 +15440,9 @@
         <v>0.89503576877270585</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>0.035525889615174076</v>
+        <v>3.5525889615174076E-2</v>
       </c>
       <c r="B398">
         <v>0.87248776984925158</v>
@@ -15434,7 +15454,7 @@
         <v>0.98223705519241289</v>
       </c>
       <c r="E398">
-        <v>0.093294289453796073</v>
+        <v>9.3294289453796073E-2</v>
       </c>
       <c r="F398">
         <v>0.84853747847080518</v>
@@ -15458,9 +15478,9 @@
         <v>0.93595200077784713</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>0.030718430132100176</v>
+        <v>3.0718430132100176E-2</v>
       </c>
       <c r="B399">
         <v>0.87438107039749136</v>
@@ -15496,9 +15516,9 @@
         <v>0.92488797196382255</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>0.0074800962784669503</v>
+        <v>7.4800962784669503E-3</v>
       </c>
       <c r="B400">
         <v>0.94454930177834628</v>
@@ -15510,7 +15530,7 @@
         <v>0.99625995186076655</v>
       </c>
       <c r="E400">
-        <v>0.011298319241292763</v>
+        <v>1.1298319241292763E-2</v>
       </c>
       <c r="F400">
         <v>0.76333704229196653</v>
@@ -15522,7 +15542,7 @@
         <v>0.99435084037935373</v>
       </c>
       <c r="I400">
-        <v>0.065029109835627152</v>
+        <v>6.5029109835627152E-2</v>
       </c>
       <c r="J400">
         <v>0.82115779180373116</v>
